--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -2971,13 +2971,17 @@
         <v>2.556999999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.53</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3012,8 +3016,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3776,17 +3792,13 @@
         <v>2.542500000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -3815,319 +3827,285 @@
         <v>2.540500000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>31850</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.536000000000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F100" t="n">
+        <v>326893.1664</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.531000000000001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F101" t="n">
+        <v>390.625</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.531500000000002</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F102" t="n">
+        <v>656.8627</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.531500000000002</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F99" t="n">
-        <v>31850</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2.536000000000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F103" t="n">
+        <v>163792.5321</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.531500000000002</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="F100" t="n">
-        <v>326893.1664</v>
-      </c>
-      <c r="G100" t="n">
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F104" t="n">
+        <v>318947.6639</v>
+      </c>
+      <c r="G104" t="n">
         <v>2.531000000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F105" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.531000000000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F101" t="n">
-        <v>390.625</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2.531500000000002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F102" t="n">
-        <v>656.8627</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2.531500000000002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E103" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F103" t="n">
-        <v>163792.5321</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.531500000000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F104" t="n">
-        <v>318947.6639</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2.531000000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F105" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>2.531000000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4161,9 +4139,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,9 +4178,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4243,9 +4217,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,17 +4250,13 @@
         <v>2.523000000000002</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K109" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4321,17 +4289,13 @@
         <v>2.523000000000002</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,17 +4328,13 @@
         <v>2.523500000000002</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K111" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,17 +4367,13 @@
         <v>2.524500000000002</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,9 +4412,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4491,15 +4445,15 @@
         <v>2.526000000000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,9 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,9 +4531,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,9 +4570,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,9 +4609,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,9 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,9 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,9 +4726,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,9 +4765,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,9 +4804,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,20 +4840,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4948,14 +4880,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4915,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4950,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +4985,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +5020,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5153,14 +5055,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5194,14 +5090,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5235,14 +5125,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +5160,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5317,14 +5195,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5358,14 +5230,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +5265,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +5300,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5481,14 +5335,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +5370,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5563,14 +5405,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5604,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +5475,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +5510,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5727,14 +5545,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5768,14 +5580,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5615,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5850,14 +5650,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5891,14 +5685,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5720,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5755,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5790,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5825,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5860,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5895,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6178,14 +5930,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6260,14 +6000,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6301,14 +6035,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6342,14 +6070,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +6105,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6424,14 +6140,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6465,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +6210,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6547,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6588,14 +6280,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6629,14 +6315,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6350,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6711,14 +6385,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6752,14 +6420,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6793,14 +6455,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6834,14 +6490,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +6525,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +6560,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6957,14 +6595,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6630,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7039,14 +6665,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7080,14 +6700,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7121,14 +6735,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7162,14 +6770,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7203,14 +6805,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6840,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7285,14 +6875,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +6910,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +6945,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +6980,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7449,14 +7015,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="C2" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="E2" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="F2" t="n">
-        <v>20097.4703</v>
+        <v>114503.8167</v>
       </c>
       <c r="G2" t="n">
-        <v>2.543500000000001</v>
+        <v>2.544500000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="C3" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="D3" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="E3" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="F3" t="n">
-        <v>38167.9389</v>
+        <v>20097.4703</v>
       </c>
       <c r="G3" t="n">
-        <v>2.549000000000001</v>
+        <v>2.544666666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="E4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F4" t="n">
-        <v>38022.8136</v>
+        <v>38167.9389</v>
       </c>
       <c r="G4" t="n">
-        <v>2.554000000000001</v>
+        <v>2.545833333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C5" t="n">
         <v>2.63</v>
@@ -547,13 +547,13 @@
         <v>2.63</v>
       </c>
       <c r="E5" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F5" t="n">
-        <v>1413973.7642</v>
+        <v>38022.8136</v>
       </c>
       <c r="G5" t="n">
-        <v>2.558000000000001</v>
+        <v>2.545833333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="C6" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="D6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="E6" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="F6" t="n">
-        <v>853882.7686</v>
+        <v>1413973.7642</v>
       </c>
       <c r="G6" t="n">
-        <v>2.561000000000001</v>
+        <v>2.547000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.6</v>
       </c>
-      <c r="D7" t="n">
-        <v>2.62</v>
-      </c>
       <c r="E7" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F7" t="n">
-        <v>115384.6153</v>
+        <v>853882.7686</v>
       </c>
       <c r="G7" t="n">
-        <v>2.567000000000001</v>
+        <v>2.547333333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>2.62</v>
       </c>
       <c r="C8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="D8" t="n">
         <v>2.62</v>
       </c>
       <c r="E8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>115384.6153</v>
       </c>
       <c r="G8" t="n">
-        <v>2.573000000000001</v>
+        <v>2.547000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="C9" t="n">
         <v>2.62</v>
@@ -687,13 +687,13 @@
         <v>2.62</v>
       </c>
       <c r="E9" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="F9" t="n">
-        <v>960763.1453</v>
+        <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>2.575000000000001</v>
+        <v>2.547000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="C10" t="n">
         <v>2.62</v>
@@ -722,13 +722,13 @@
         <v>2.62</v>
       </c>
       <c r="E10" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="F10" t="n">
-        <v>364550.8547</v>
+        <v>960763.1453</v>
       </c>
       <c r="G10" t="n">
-        <v>2.580000000000001</v>
+        <v>2.548333333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="E11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F11" t="n">
-        <v>68702.28999999999</v>
+        <v>364550.8547</v>
       </c>
       <c r="G11" t="n">
-        <v>2.585</v>
+        <v>2.549666666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="C12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="D12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="F12" t="n">
-        <v>38167.9389</v>
+        <v>68702.28999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>2.589</v>
+        <v>2.551166666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>2.62</v>
       </c>
       <c r="F13" t="n">
-        <v>76335.8778</v>
+        <v>38167.9389</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5925</v>
+        <v>2.551166666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="C14" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="D14" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="E14" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="F14" t="n">
-        <v>1579.3749</v>
+        <v>76335.8778</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5925</v>
+        <v>2.552500000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="C15" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="D15" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="E15" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="F15" t="n">
-        <v>38022.8136</v>
+        <v>1579.3749</v>
       </c>
       <c r="G15" t="n">
-        <v>2.597</v>
+        <v>2.553000000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="C16" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="D16" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="E16" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="F16" t="n">
-        <v>7206.9375</v>
+        <v>38022.8136</v>
       </c>
       <c r="G16" t="n">
-        <v>2.594500000000001</v>
+        <v>2.554500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="C17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="D17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="E17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>7206.9375</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5985</v>
+        <v>2.554833333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="C18" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="D18" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="E18" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>2.599000000000001</v>
+        <v>2.556333333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>2.56</v>
       </c>
       <c r="F19" t="n">
-        <v>233241</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>2.599000000000001</v>
+        <v>2.556833333333336</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>2.56</v>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>233241</v>
       </c>
       <c r="G20" t="n">
-        <v>2.599000000000001</v>
+        <v>2.557166666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>2.56</v>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>2.596500000000001</v>
+        <v>2.557500000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="C22" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D22" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E22" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F22" t="n">
-        <v>38314.1762</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="n">
-        <v>2.598500000000001</v>
+        <v>2.558166666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="C23" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="D23" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E23" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F23" t="n">
-        <v>105029</v>
+        <v>38314.1762</v>
       </c>
       <c r="G23" t="n">
-        <v>2.595500000000001</v>
+        <v>2.559333333333336</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C24" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D24" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E24" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="F24" t="n">
-        <v>25251.8199</v>
+        <v>105029</v>
       </c>
       <c r="G24" t="n">
-        <v>2.594500000000001</v>
+        <v>2.560000000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>2.61</v>
       </c>
       <c r="F25" t="n">
-        <v>56816.6665</v>
+        <v>25251.8199</v>
       </c>
       <c r="G25" t="n">
-        <v>2.594500000000001</v>
+        <v>2.56116666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="C26" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="D26" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="E26" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>56816.6665</v>
       </c>
       <c r="G26" t="n">
-        <v>2.593000000000001</v>
+        <v>2.56266666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="C27" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="D27" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E27" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="F27" t="n">
-        <v>38314.1762</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>2.592000000000001</v>
+        <v>2.563500000000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C28" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="D28" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="E28" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F28" t="n">
-        <v>126580</v>
+        <v>38314.1762</v>
       </c>
       <c r="G28" t="n">
-        <v>2.589500000000001</v>
+        <v>2.56466666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C29" t="n">
         <v>2.56</v>
       </c>
       <c r="D29" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E29" t="n">
         <v>2.56</v>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>126580</v>
       </c>
       <c r="G29" t="n">
-        <v>2.589000000000001</v>
+        <v>2.56516666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C30" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D30" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E30" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="F30" t="n">
-        <v>38314.1762</v>
+        <v>10000</v>
       </c>
       <c r="G30" t="n">
-        <v>2.588500000000002</v>
+        <v>2.565500000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>2.61</v>
       </c>
       <c r="F31" t="n">
-        <v>3886.59</v>
+        <v>38314.1762</v>
       </c>
       <c r="G31" t="n">
-        <v>2.587500000000001</v>
+        <v>2.56616666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="C32" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="D32" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E32" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="F32" t="n">
-        <v>84151.51360000001</v>
+        <v>3886.59</v>
       </c>
       <c r="G32" t="n">
-        <v>2.584500000000002</v>
+        <v>2.567500000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>2.56</v>
       </c>
       <c r="F33" t="n">
-        <v>43317.3356</v>
+        <v>84151.51360000001</v>
       </c>
       <c r="G33" t="n">
-        <v>2.581500000000002</v>
+        <v>2.567166666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C34" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D34" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E34" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="F34" t="n">
-        <v>38314.1762</v>
+        <v>43317.3356</v>
       </c>
       <c r="G34" t="n">
-        <v>2.584000000000002</v>
+        <v>2.56766666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="C35" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="D35" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E35" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="F35" t="n">
-        <v>21883.9393</v>
+        <v>38314.1762</v>
       </c>
       <c r="G35" t="n">
-        <v>2.580500000000002</v>
+        <v>2.569000000000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>2.56</v>
       </c>
       <c r="C36" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D36" t="n">
         <v>2.56</v>
       </c>
       <c r="E36" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F36" t="n">
-        <v>350071.7949</v>
+        <v>21883.9393</v>
       </c>
       <c r="G36" t="n">
-        <v>2.580500000000002</v>
+        <v>2.568666666666671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>2.56</v>
       </c>
       <c r="C37" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D37" t="n">
         <v>2.56</v>
       </c>
       <c r="E37" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F37" t="n">
-        <v>38314.1762</v>
+        <v>350071.7949</v>
       </c>
       <c r="G37" t="n">
-        <v>2.577500000000002</v>
+        <v>2.56916666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>2.56</v>
       </c>
       <c r="C38" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D38" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E38" t="n">
         <v>2.56</v>
       </c>
       <c r="F38" t="n">
-        <v>95785.4406</v>
+        <v>38314.1762</v>
       </c>
       <c r="G38" t="n">
-        <v>2.577500000000002</v>
+        <v>2.569833333333337</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C39" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D39" t="n">
         <v>2.61</v>
       </c>
       <c r="E39" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F39" t="n">
-        <v>348391.0306</v>
+        <v>95785.4406</v>
       </c>
       <c r="G39" t="n">
-        <v>2.580000000000002</v>
+        <v>2.571333333333337</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="C40" t="n">
         <v>2.55</v>
       </c>
       <c r="D40" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="E40" t="n">
         <v>2.55</v>
       </c>
       <c r="F40" t="n">
-        <v>114288.7719</v>
+        <v>348391.0306</v>
       </c>
       <c r="G40" t="n">
-        <v>2.579500000000002</v>
+        <v>2.571833333333337</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C41" t="n">
         <v>2.55</v>
       </c>
       <c r="D41" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E41" t="n">
         <v>2.55</v>
       </c>
       <c r="F41" t="n">
-        <v>60658.9224</v>
+        <v>114288.7719</v>
       </c>
       <c r="G41" t="n">
-        <v>2.580500000000002</v>
+        <v>2.572333333333337</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C42" t="n">
         <v>2.55</v>
       </c>
       <c r="D42" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E42" t="n">
         <v>2.55</v>
       </c>
       <c r="F42" t="n">
-        <v>381377.4687</v>
+        <v>60658.9224</v>
       </c>
       <c r="G42" t="n">
-        <v>2.578000000000001</v>
+        <v>2.572666666666671</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C43" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D43" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E43" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F43" t="n">
-        <v>13254.8604</v>
+        <v>381377.4687</v>
       </c>
       <c r="G43" t="n">
-        <v>2.578500000000001</v>
+        <v>2.573000000000004</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C44" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D44" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E44" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F44" t="n">
-        <v>598570.7256</v>
+        <v>13254.8604</v>
       </c>
       <c r="G44" t="n">
-        <v>2.576000000000001</v>
+        <v>2.574000000000004</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C45" t="n">
         <v>2.55</v>
       </c>
       <c r="D45" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E45" t="n">
         <v>2.55</v>
       </c>
       <c r="F45" t="n">
-        <v>63906.6321</v>
+        <v>598570.7256</v>
       </c>
       <c r="G45" t="n">
-        <v>2.573000000000001</v>
+        <v>2.574333333333338</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>2.55</v>
       </c>
       <c r="F46" t="n">
-        <v>420094.5807</v>
+        <v>63906.6321</v>
       </c>
       <c r="G46" t="n">
-        <v>2.572000000000001</v>
+        <v>2.574500000000005</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>2.55</v>
       </c>
       <c r="F47" t="n">
-        <v>154894.1855</v>
+        <v>420094.5807</v>
       </c>
       <c r="G47" t="n">
-        <v>2.569500000000001</v>
+        <v>2.574666666666672</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>2.55</v>
       </c>
       <c r="F48" t="n">
-        <v>1246574.9262</v>
+        <v>154894.1855</v>
       </c>
       <c r="G48" t="n">
-        <v>2.568500000000001</v>
+        <v>2.575500000000005</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>2.55</v>
       </c>
       <c r="F49" t="n">
-        <v>320704.6092</v>
+        <v>1246574.9262</v>
       </c>
       <c r="G49" t="n">
-        <v>2.568000000000001</v>
+        <v>2.576333333333339</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F50" t="n">
-        <v>9532.8125</v>
+        <v>320704.6092</v>
       </c>
       <c r="G50" t="n">
-        <v>2.565500000000001</v>
+        <v>2.576500000000006</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C51" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D51" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E51" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F51" t="n">
-        <v>220000</v>
+        <v>9532.8125</v>
       </c>
       <c r="G51" t="n">
-        <v>2.5625</v>
+        <v>2.577166666666672</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>2.55</v>
       </c>
       <c r="F52" t="n">
-        <v>74313.4451</v>
+        <v>220000</v>
       </c>
       <c r="G52" t="n">
-        <v>2.562</v>
+        <v>2.577500000000006</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>2.55</v>
       </c>
       <c r="F53" t="n">
-        <v>1247471.3902</v>
+        <v>74313.4451</v>
       </c>
       <c r="G53" t="n">
-        <v>2.5615</v>
+        <v>2.577666666666673</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>2.55</v>
       </c>
       <c r="F54" t="n">
-        <v>2040381</v>
+        <v>1247471.3902</v>
       </c>
       <c r="G54" t="n">
-        <v>2.5585</v>
+        <v>2.577500000000006</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>2.55</v>
       </c>
       <c r="F55" t="n">
-        <v>52024.1994</v>
+        <v>2040381</v>
       </c>
       <c r="G55" t="n">
-        <v>2.557999999999999</v>
+        <v>2.577500000000006</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>2.55</v>
       </c>
       <c r="F56" t="n">
-        <v>1109543.0901</v>
+        <v>52024.1994</v>
       </c>
       <c r="G56" t="n">
-        <v>2.557499999999999</v>
+        <v>2.577666666666673</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>2.55</v>
       </c>
       <c r="F57" t="n">
-        <v>3582629.6047</v>
+        <v>1109543.0901</v>
       </c>
       <c r="G57" t="n">
-        <v>2.556999999999999</v>
+        <v>2.576666666666673</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>2.55</v>
       </c>
       <c r="F58" t="n">
-        <v>124365.1276</v>
+        <v>3582629.6047</v>
       </c>
       <c r="G58" t="n">
-        <v>2.556499999999999</v>
+        <v>2.576666666666673</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>2.55</v>
       </c>
       <c r="F59" t="n">
-        <v>500896.0118</v>
+        <v>124365.1276</v>
       </c>
       <c r="G59" t="n">
-        <v>2.553499999999999</v>
+        <v>2.576666666666673</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>2.55</v>
       </c>
       <c r="F60" t="n">
-        <v>89675.2721</v>
+        <v>500896.0118</v>
       </c>
       <c r="G60" t="n">
-        <v>2.553499999999999</v>
+        <v>2.576666666666673</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>2.55</v>
       </c>
       <c r="F61" t="n">
-        <v>335773.6361</v>
+        <v>89675.2721</v>
       </c>
       <c r="G61" t="n">
-        <v>2.551999999999999</v>
+        <v>2.576666666666673</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>2.55</v>
       </c>
       <c r="F62" t="n">
-        <v>31277.3988</v>
+        <v>335773.6361</v>
       </c>
       <c r="G62" t="n">
-        <v>2.551999999999999</v>
+        <v>2.575500000000007</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>2.55</v>
       </c>
       <c r="F63" t="n">
-        <v>174460.6011</v>
+        <v>31277.3988</v>
       </c>
       <c r="G63" t="n">
-        <v>2.550999999999998</v>
+        <v>2.57533333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>2.55</v>
       </c>
       <c r="F64" t="n">
-        <v>388687</v>
+        <v>174460.6011</v>
       </c>
       <c r="G64" t="n">
-        <v>2.550499999999998</v>
+        <v>2.574166666666673</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C65" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="D65" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E65" t="n">
         <v>2.55</v>
       </c>
       <c r="F65" t="n">
-        <v>513319</v>
+        <v>388687</v>
       </c>
       <c r="G65" t="n">
-        <v>2.551999999999998</v>
+        <v>2.572833333333341</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>2.58</v>
       </c>
       <c r="C66" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D66" t="n">
         <v>2.58</v>
@@ -2685,10 +2685,10 @@
         <v>2.55</v>
       </c>
       <c r="F66" t="n">
-        <v>281743</v>
+        <v>513319</v>
       </c>
       <c r="G66" t="n">
-        <v>2.553499999999998</v>
+        <v>2.572000000000008</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C67" t="n">
         <v>2.55</v>
       </c>
       <c r="D67" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E67" t="n">
         <v>2.55</v>
       </c>
       <c r="F67" t="n">
-        <v>337005.1807</v>
+        <v>281743</v>
       </c>
       <c r="G67" t="n">
-        <v>2.553499999999998</v>
+        <v>2.571833333333341</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>2.55</v>
       </c>
       <c r="F68" t="n">
-        <v>53725.0034</v>
+        <v>337005.1807</v>
       </c>
       <c r="G68" t="n">
-        <v>2.553499999999998</v>
+        <v>2.571000000000008</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C69" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D69" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E69" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="F69" t="n">
-        <v>386100.5</v>
+        <v>53725.0034</v>
       </c>
       <c r="G69" t="n">
-        <v>2.555499999999999</v>
+        <v>2.569833333333341</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C70" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="D70" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E70" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>386100.5</v>
       </c>
       <c r="G70" t="n">
-        <v>2.555499999999999</v>
+        <v>2.569333333333341</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>2.56</v>
       </c>
       <c r="F71" t="n">
-        <v>365.4647</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>2.555999999999999</v>
+        <v>2.568333333333341</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C72" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D72" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E72" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F72" t="n">
-        <v>388558</v>
+        <v>365.4647</v>
       </c>
       <c r="G72" t="n">
-        <v>2.555999999999999</v>
+        <v>2.567166666666675</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="C73" t="n">
         <v>2.53</v>
       </c>
       <c r="D73" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="E73" t="n">
         <v>2.53</v>
       </c>
       <c r="F73" t="n">
-        <v>1768.795</v>
+        <v>388558</v>
       </c>
       <c r="G73" t="n">
-        <v>2.554999999999999</v>
+        <v>2.565666666666675</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,35 +2953,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="C74" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="D74" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="E74" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="F74" t="n">
-        <v>171559.4594</v>
+        <v>1768.795</v>
       </c>
       <c r="G74" t="n">
-        <v>2.556999999999999</v>
+        <v>2.564166666666674</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.53</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -2992,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C75" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="D75" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="E75" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="F75" t="n">
-        <v>40338.8226</v>
+        <v>171559.4594</v>
       </c>
       <c r="G75" t="n">
-        <v>2.556999999999999</v>
+        <v>2.564666666666675</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3016,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3045,10 +3035,10 @@
         <v>2.55</v>
       </c>
       <c r="F76" t="n">
-        <v>49841.4944</v>
+        <v>40338.8226</v>
       </c>
       <c r="G76" t="n">
-        <v>2.556999999999999</v>
+        <v>2.563333333333341</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3057,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3074,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C77" t="n">
         <v>2.55</v>
       </c>
       <c r="D77" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E77" t="n">
         <v>2.55</v>
       </c>
       <c r="F77" t="n">
-        <v>270610.2779</v>
+        <v>49841.4944</v>
       </c>
       <c r="G77" t="n">
-        <v>2.559</v>
+        <v>2.563166666666675</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C78" t="n">
         <v>2.55</v>
       </c>
       <c r="D78" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="E78" t="n">
         <v>2.55</v>
       </c>
       <c r="F78" t="n">
-        <v>19999.7221</v>
+        <v>270610.2779</v>
       </c>
       <c r="G78" t="n">
-        <v>2.559</v>
+        <v>2.562000000000009</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C79" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D79" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="E79" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="F79" t="n">
-        <v>23166.0231</v>
+        <v>19999.7221</v>
       </c>
       <c r="G79" t="n">
-        <v>2.561</v>
+        <v>2.561833333333342</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3191,10 +3175,10 @@
         <v>2.59</v>
       </c>
       <c r="F80" t="n">
-        <v>38461.5384</v>
+        <v>23166.0231</v>
       </c>
       <c r="G80" t="n">
-        <v>2.563</v>
+        <v>2.562500000000008</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3214,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C81" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="D81" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="E81" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="F81" t="n">
-        <v>106360.555</v>
+        <v>38461.5384</v>
       </c>
       <c r="G81" t="n">
-        <v>2.563</v>
+        <v>2.563166666666675</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3261,10 +3245,10 @@
         <v>2.55</v>
       </c>
       <c r="F82" t="n">
-        <v>215563</v>
+        <v>106360.555</v>
       </c>
       <c r="G82" t="n">
-        <v>2.563</v>
+        <v>2.563000000000009</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3296,10 +3280,10 @@
         <v>2.55</v>
       </c>
       <c r="F83" t="n">
-        <v>78373</v>
+        <v>215563</v>
       </c>
       <c r="G83" t="n">
-        <v>2.563</v>
+        <v>2.562000000000009</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3319,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C84" t="n">
         <v>2.55</v>
       </c>
       <c r="D84" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E84" t="n">
         <v>2.55</v>
       </c>
       <c r="F84" t="n">
-        <v>53922.2343</v>
+        <v>78373</v>
       </c>
       <c r="G84" t="n">
-        <v>2.5635</v>
+        <v>2.561833333333342</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3354,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C85" t="n">
         <v>2.55</v>
       </c>
       <c r="D85" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E85" t="n">
         <v>2.55</v>
       </c>
       <c r="F85" t="n">
-        <v>84766.89720000001</v>
+        <v>53922.2343</v>
       </c>
       <c r="G85" t="n">
-        <v>2.562</v>
+        <v>2.560833333333342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3401,10 +3385,10 @@
         <v>2.55</v>
       </c>
       <c r="F86" t="n">
-        <v>20000</v>
+        <v>84766.89720000001</v>
       </c>
       <c r="G86" t="n">
-        <v>2.5605</v>
+        <v>2.559833333333342</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3424,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="C87" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="D87" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="E87" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="F87" t="n">
-        <v>13243.0711</v>
+        <v>20000</v>
       </c>
       <c r="G87" t="n">
-        <v>2.56</v>
+        <v>2.559500000000009</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3471,10 +3455,10 @@
         <v>2.54</v>
       </c>
       <c r="F88" t="n">
-        <v>10131.457</v>
+        <v>13243.0711</v>
       </c>
       <c r="G88" t="n">
-        <v>2.559500000000001</v>
+        <v>2.558333333333342</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="C89" t="n">
         <v>2.54</v>
@@ -3503,13 +3487,13 @@
         <v>2.54</v>
       </c>
       <c r="E89" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="F89" t="n">
-        <v>209684.5029</v>
+        <v>10131.457</v>
       </c>
       <c r="G89" t="n">
-        <v>2.556500000000001</v>
+        <v>2.558000000000008</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3532,19 +3516,19 @@
         <v>2.53</v>
       </c>
       <c r="C90" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="D90" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="E90" t="n">
         <v>2.53</v>
       </c>
       <c r="F90" t="n">
-        <v>215450.6152</v>
+        <v>209684.5029</v>
       </c>
       <c r="G90" t="n">
-        <v>2.555000000000001</v>
+        <v>2.557666666666675</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3576,10 +3560,10 @@
         <v>2.53</v>
       </c>
       <c r="F91" t="n">
-        <v>20000</v>
+        <v>215450.6152</v>
       </c>
       <c r="G91" t="n">
-        <v>2.553500000000001</v>
+        <v>2.556333333333341</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3611,10 +3595,10 @@
         <v>2.53</v>
       </c>
       <c r="F92" t="n">
-        <v>3073.3571</v>
+        <v>20000</v>
       </c>
       <c r="G92" t="n">
-        <v>2.552500000000001</v>
+        <v>2.555000000000008</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3634,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="C93" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="D93" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="E93" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="F93" t="n">
-        <v>186840.6058</v>
+        <v>3073.3571</v>
       </c>
       <c r="G93" t="n">
-        <v>2.552</v>
+        <v>2.554500000000008</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3681,10 +3665,10 @@
         <v>2.52</v>
       </c>
       <c r="F94" t="n">
-        <v>18827.5703</v>
+        <v>186840.6058</v>
       </c>
       <c r="G94" t="n">
-        <v>2.548500000000001</v>
+        <v>2.553833333333341</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3704,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="C95" t="n">
         <v>2.52</v>
       </c>
       <c r="D95" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="E95" t="n">
         <v>2.52</v>
       </c>
       <c r="F95" t="n">
-        <v>550191.0251</v>
+        <v>18827.5703</v>
       </c>
       <c r="G95" t="n">
-        <v>2.547500000000001</v>
+        <v>2.552333333333341</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="C96" t="n">
         <v>2.52</v>
       </c>
       <c r="D96" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="E96" t="n">
         <v>2.52</v>
       </c>
       <c r="F96" t="n">
-        <v>34266.8198</v>
+        <v>550191.0251</v>
       </c>
       <c r="G96" t="n">
-        <v>2.546000000000001</v>
+        <v>2.551666666666675</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3786,10 +3770,10 @@
         <v>2.52</v>
       </c>
       <c r="F97" t="n">
-        <v>2540.3968</v>
+        <v>34266.8198</v>
       </c>
       <c r="G97" t="n">
-        <v>2.542500000000001</v>
+        <v>2.551166666666675</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3809,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="C98" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="D98" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="E98" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="F98" t="n">
-        <v>7723.5457</v>
+        <v>2540.3968</v>
       </c>
       <c r="G98" t="n">
-        <v>2.540500000000001</v>
+        <v>2.550500000000008</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="C99" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="D99" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="E99" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="F99" t="n">
-        <v>31850</v>
+        <v>7723.5457</v>
       </c>
       <c r="G99" t="n">
-        <v>2.536000000000001</v>
+        <v>2.548833333333341</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="D100" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="E100" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="F100" t="n">
-        <v>326893.1664</v>
+        <v>31850</v>
       </c>
       <c r="G100" t="n">
-        <v>2.531000000000001</v>
+        <v>2.548000000000008</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3914,35 +3898,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="C101" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="D101" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="E101" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="F101" t="n">
-        <v>390.625</v>
+        <v>326893.1664</v>
       </c>
       <c r="G101" t="n">
-        <v>2.531500000000002</v>
+        <v>2.54683333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.48</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -3953,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C102" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D102" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E102" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F102" t="n">
-        <v>656.8627</v>
+        <v>390.625</v>
       </c>
       <c r="G102" t="n">
-        <v>2.531500000000002</v>
+        <v>2.547000000000007</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3977,16 +3957,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="K102" t="n">
         <v>2.48</v>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4008,20 +3984,18 @@
         <v>2.55</v>
       </c>
       <c r="F103" t="n">
-        <v>163792.5321</v>
+        <v>656.8627</v>
       </c>
       <c r="G103" t="n">
-        <v>2.531500000000002</v>
+        <v>2.547000000000007</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>2.48</v>
       </c>
@@ -4051,10 +4025,10 @@
         <v>2.55</v>
       </c>
       <c r="F104" t="n">
-        <v>318947.6639</v>
+        <v>163792.5321</v>
       </c>
       <c r="G104" t="n">
-        <v>2.531000000000001</v>
+        <v>2.54683333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4063,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4077,35 +4057,29 @@
         <v>2.55</v>
       </c>
       <c r="C105" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D105" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E105" t="n">
         <v>2.55</v>
       </c>
       <c r="F105" t="n">
-        <v>21000</v>
+        <v>318947.6639</v>
       </c>
       <c r="G105" t="n">
-        <v>2.531000000000001</v>
+        <v>2.54683333333334</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4115,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="C106" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="D106" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="E106" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="F106" t="n">
-        <v>1174217.53</v>
+        <v>21000</v>
       </c>
       <c r="G106" t="n">
-        <v>2.527500000000002</v>
+        <v>2.547000000000007</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4140,11 +4114,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4154,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="C107" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="D107" t="n">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="E107" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="F107" t="n">
-        <v>143952.498</v>
+        <v>1174217.53</v>
       </c>
       <c r="G107" t="n">
-        <v>2.524000000000002</v>
+        <v>2.54683333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4179,11 +4149,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4193,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="C108" t="n">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="D108" t="n">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="E108" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="F108" t="n">
-        <v>40000</v>
+        <v>143952.498</v>
       </c>
       <c r="G108" t="n">
-        <v>2.523000000000002</v>
+        <v>2.54533333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4218,11 +4184,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4232,7 +4194,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="C109" t="n">
         <v>2.53</v>
@@ -4241,13 +4203,13 @@
         <v>2.53</v>
       </c>
       <c r="E109" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="F109" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="G109" t="n">
-        <v>2.523000000000002</v>
+        <v>2.545000000000007</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4257,11 +4219,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4283,10 +4241,10 @@
         <v>2.53</v>
       </c>
       <c r="F110" t="n">
-        <v>119124.216</v>
+        <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>2.523000000000002</v>
+        <v>2.544666666666673</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4296,11 +4254,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4310,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D111" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E111" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="F111" t="n">
-        <v>18618.9664</v>
+        <v>119124.216</v>
       </c>
       <c r="G111" t="n">
-        <v>2.523500000000002</v>
+        <v>2.544166666666673</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4335,11 +4289,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4299,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="C112" t="n">
         <v>2.55</v>
@@ -4358,13 +4308,13 @@
         <v>2.55</v>
       </c>
       <c r="E112" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="F112" t="n">
-        <v>603192.745</v>
+        <v>18618.9664</v>
       </c>
       <c r="G112" t="n">
-        <v>2.524500000000002</v>
+        <v>2.544166666666673</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4374,11 +4324,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="E113" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="F113" t="n">
-        <v>643230.785</v>
+        <v>603192.745</v>
       </c>
       <c r="G113" t="n">
-        <v>2.525000000000001</v>
+        <v>2.544166666666673</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4413,11 +4359,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4427,38 +4369,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="C114" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D114" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E114" t="n">
         <v>2.53</v>
       </c>
       <c r="F114" t="n">
-        <v>164528.6174</v>
+        <v>643230.785</v>
       </c>
       <c r="G114" t="n">
-        <v>2.526000000000001</v>
+        <v>2.544500000000006</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4468,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E115" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="F115" t="n">
-        <v>29569</v>
+        <v>164528.6174</v>
       </c>
       <c r="G115" t="n">
-        <v>2.527500000000001</v>
+        <v>2.544666666666672</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4493,11 +4429,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4507,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C116" t="n">
         <v>2.57</v>
       </c>
-      <c r="C116" t="n">
-        <v>2.59</v>
-      </c>
       <c r="D116" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E116" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F116" t="n">
-        <v>639003.3281</v>
+        <v>29569</v>
       </c>
       <c r="G116" t="n">
-        <v>2.530000000000001</v>
+        <v>2.545000000000006</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4532,11 +4464,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4546,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="C117" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="D117" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="E117" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="F117" t="n">
-        <v>523914.4906</v>
+        <v>639003.3281</v>
       </c>
       <c r="G117" t="n">
-        <v>2.534000000000001</v>
+        <v>2.545666666666672</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4571,11 +4499,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4585,7 +4509,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="C118" t="n">
         <v>2.62</v>
@@ -4594,13 +4518,13 @@
         <v>2.62</v>
       </c>
       <c r="E118" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="F118" t="n">
-        <v>20000</v>
+        <v>523914.4906</v>
       </c>
       <c r="G118" t="n">
-        <v>2.539500000000001</v>
+        <v>2.546833333333339</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4610,11 +4534,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4624,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C119" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D119" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E119" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="F119" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G119" t="n">
-        <v>2.545000000000001</v>
+        <v>2.548000000000005</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4649,11 +4569,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4666,19 +4582,19 @@
         <v>2.61</v>
       </c>
       <c r="C120" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D120" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="E120" t="n">
         <v>2.61</v>
       </c>
       <c r="F120" t="n">
-        <v>26145</v>
+        <v>10000</v>
       </c>
       <c r="G120" t="n">
-        <v>2.551000000000001</v>
+        <v>2.549000000000005</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4688,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4702,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C121" t="n">
         <v>2.62</v>
       </c>
-      <c r="C121" t="n">
-        <v>2.64</v>
-      </c>
       <c r="D121" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="E121" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F121" t="n">
-        <v>120338.1925</v>
+        <v>26145</v>
       </c>
       <c r="G121" t="n">
-        <v>2.554000000000001</v>
+        <v>2.550166666666672</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4727,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4741,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C122" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="D122" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E122" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F122" t="n">
-        <v>119999.1064</v>
+        <v>120338.1925</v>
       </c>
       <c r="G122" t="n">
-        <v>2.558000000000001</v>
+        <v>2.551666666666671</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4766,11 +4674,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="C123" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="D123" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="E123" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F123" t="n">
-        <v>110886.3087</v>
+        <v>119999.1064</v>
       </c>
       <c r="G123" t="n">
-        <v>2.561500000000001</v>
+        <v>2.553333333333338</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4805,11 +4709,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4819,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C124" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D124" t="n">
         <v>2.62</v>
       </c>
       <c r="E124" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="F124" t="n">
-        <v>2113622.1453</v>
+        <v>110886.3087</v>
       </c>
       <c r="G124" t="n">
-        <v>2.564500000000001</v>
+        <v>2.554333333333338</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4844,40 +4744,38 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="C125" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="D125" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="E125" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F125" t="n">
-        <v>100497.5</v>
+        <v>2113622.1453</v>
       </c>
       <c r="G125" t="n">
-        <v>2.566000000000001</v>
+        <v>2.555500000000004</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4903,10 +4801,10 @@
         <v>2.58</v>
       </c>
       <c r="F126" t="n">
-        <v>69582</v>
+        <v>100497.5</v>
       </c>
       <c r="G126" t="n">
-        <v>2.571000000000001</v>
+        <v>2.555500000000004</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,10 +4836,10 @@
         <v>2.58</v>
       </c>
       <c r="F127" t="n">
-        <v>671588.8382</v>
+        <v>69582</v>
       </c>
       <c r="G127" t="n">
-        <v>2.576500000000001</v>
+        <v>2.556000000000004</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4973,10 +4871,10 @@
         <v>2.58</v>
       </c>
       <c r="F128" t="n">
-        <v>59991.2849</v>
+        <v>671588.8382</v>
       </c>
       <c r="G128" t="n">
-        <v>2.579500000000001</v>
+        <v>2.556500000000005</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4996,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="C129" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="E129" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="F129" t="n">
-        <v>114503.8167</v>
+        <v>59991.2849</v>
       </c>
       <c r="G129" t="n">
-        <v>2.583000000000001</v>
+        <v>2.557000000000004</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5031,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="C130" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="D130" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="E130" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="F130" t="n">
-        <v>37878.7878</v>
+        <v>114503.8167</v>
       </c>
       <c r="G130" t="n">
-        <v>2.589000000000001</v>
+        <v>2.557500000000005</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5069,19 +4967,19 @@
         <v>2.65</v>
       </c>
       <c r="C131" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="D131" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="E131" t="n">
         <v>2.65</v>
       </c>
       <c r="F131" t="n">
-        <v>56390.9774</v>
+        <v>37878.7878</v>
       </c>
       <c r="G131" t="n">
-        <v>2.594500000000001</v>
+        <v>2.559000000000005</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5101,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="C132" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="E132" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="F132" t="n">
-        <v>114922.8742</v>
+        <v>56390.9774</v>
       </c>
       <c r="G132" t="n">
-        <v>2.597000000000001</v>
+        <v>2.560666666666671</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5136,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="C133" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D133" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="E133" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F133" t="n">
-        <v>19157.0881</v>
+        <v>114922.8742</v>
       </c>
       <c r="G133" t="n">
-        <v>2.600000000000001</v>
+        <v>2.561333333333338</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5174,19 +5072,19 @@
         <v>2.59</v>
       </c>
       <c r="C134" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D134" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="E134" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F134" t="n">
-        <v>162631.2594</v>
+        <v>19157.0881</v>
       </c>
       <c r="G134" t="n">
-        <v>2.602500000000001</v>
+        <v>2.562333333333338</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5206,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="C135" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="D135" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="E135" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F135" t="n">
-        <v>80769.2307</v>
+        <v>162631.2594</v>
       </c>
       <c r="G135" t="n">
-        <v>2.603500000000001</v>
+        <v>2.562000000000004</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5241,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C136" t="n">
         <v>2.6</v>
       </c>
-      <c r="C136" t="n">
-        <v>2.61</v>
-      </c>
       <c r="D136" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="E136" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="F136" t="n">
-        <v>22988.5057</v>
+        <v>80769.2307</v>
       </c>
       <c r="G136" t="n">
-        <v>2.605000000000001</v>
+        <v>2.562833333333337</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5276,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="C137" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D137" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="E137" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="F137" t="n">
-        <v>15094.3396</v>
+        <v>22988.5057</v>
       </c>
       <c r="G137" t="n">
-        <v>2.607000000000001</v>
+        <v>2.563833333333337</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5323,10 +5221,10 @@
         <v>2.64</v>
       </c>
       <c r="F138" t="n">
-        <v>3787.8787</v>
+        <v>15094.3396</v>
       </c>
       <c r="G138" t="n">
-        <v>2.608000000000001</v>
+        <v>2.565333333333337</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5346,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C139" t="n">
         <v>2.64</v>
       </c>
       <c r="D139" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E139" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F139" t="n">
-        <v>3398521.2855</v>
+        <v>3787.8787</v>
       </c>
       <c r="G139" t="n">
-        <v>2.609000000000001</v>
+        <v>2.566833333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5381,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D140" t="n">
         <v>2.65</v>
       </c>
-      <c r="C140" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.66</v>
-      </c>
       <c r="E140" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="F140" t="n">
-        <v>1546918.1278</v>
+        <v>3398521.2855</v>
       </c>
       <c r="G140" t="n">
-        <v>2.611000000000001</v>
+        <v>2.567500000000003</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5416,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="C141" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="D141" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="E141" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>1546918.1278</v>
       </c>
       <c r="G141" t="n">
-        <v>2.610500000000001</v>
+        <v>2.567333333333337</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5451,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C142" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="D142" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E142" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F142" t="n">
-        <v>37593.9849</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>2.611500000000001</v>
+        <v>2.568333333333336</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5498,10 +5396,10 @@
         <v>2.65</v>
       </c>
       <c r="F143" t="n">
-        <v>18726.5917</v>
+        <v>37593.9849</v>
       </c>
       <c r="G143" t="n">
-        <v>2.613000000000001</v>
+        <v>2.570000000000003</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5533,10 +5431,10 @@
         <v>2.65</v>
       </c>
       <c r="F144" t="n">
-        <v>18796.9924</v>
+        <v>18726.5917</v>
       </c>
       <c r="G144" t="n">
-        <v>2.615000000000001</v>
+        <v>2.57166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5568,10 +5466,10 @@
         <v>2.65</v>
       </c>
       <c r="F145" t="n">
-        <v>3773.5849</v>
+        <v>18796.9924</v>
       </c>
       <c r="G145" t="n">
-        <v>2.618500000000001</v>
+        <v>2.573333333333336</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5591,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C146" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="D146" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="E146" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="F146" t="n">
-        <v>57037.9849</v>
+        <v>3773.5849</v>
       </c>
       <c r="G146" t="n">
-        <v>2.622500000000001</v>
+        <v>2.575000000000003</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5626,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="C147" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="D147" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="E147" t="n">
         <v>2.61</v>
       </c>
       <c r="F147" t="n">
-        <v>38453.1835</v>
+        <v>57037.9849</v>
       </c>
       <c r="G147" t="n">
-        <v>2.624000000000001</v>
+        <v>2.576000000000003</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5664,19 +5562,19 @@
         <v>2.61</v>
       </c>
       <c r="C148" t="n">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="D148" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="E148" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="F148" t="n">
-        <v>114029.0368</v>
+        <v>38453.1835</v>
       </c>
       <c r="G148" t="n">
-        <v>2.625500000000001</v>
+        <v>2.578166666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5696,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="C149" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D149" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="E149" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="F149" t="n">
-        <v>8841</v>
+        <v>114029.0368</v>
       </c>
       <c r="G149" t="n">
-        <v>2.625500000000001</v>
+        <v>2.579000000000003</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5734,19 +5632,19 @@
         <v>2.6</v>
       </c>
       <c r="C150" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="D150" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="E150" t="n">
         <v>2.6</v>
       </c>
       <c r="F150" t="n">
-        <v>37878.7878</v>
+        <v>8841</v>
       </c>
       <c r="G150" t="n">
-        <v>2.623000000000001</v>
+        <v>2.580000000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5766,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="C151" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="D151" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="E151" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="F151" t="n">
-        <v>90861.1683</v>
+        <v>37878.7878</v>
       </c>
       <c r="G151" t="n">
-        <v>2.620000000000001</v>
+        <v>2.58166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5804,19 +5702,19 @@
         <v>2.59</v>
       </c>
       <c r="C152" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D152" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E152" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="F152" t="n">
-        <v>84986.0802</v>
+        <v>90861.1683</v>
       </c>
       <c r="G152" t="n">
-        <v>2.619500000000001</v>
+        <v>2.58266666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5836,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C153" t="n">
         <v>2.6</v>
       </c>
-      <c r="C153" t="n">
-        <v>2.61</v>
-      </c>
       <c r="D153" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="E153" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="F153" t="n">
-        <v>19157.0881</v>
+        <v>84986.0802</v>
       </c>
       <c r="G153" t="n">
-        <v>2.620000000000001</v>
+        <v>2.583833333333336</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5871,7 +5769,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="C154" t="n">
         <v>2.61</v>
@@ -5880,13 +5778,13 @@
         <v>2.61</v>
       </c>
       <c r="E154" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F154" t="n">
-        <v>4631.2643</v>
+        <v>19157.0881</v>
       </c>
       <c r="G154" t="n">
-        <v>2.621000000000001</v>
+        <v>2.585333333333336</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5906,22 +5804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="C155" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="D155" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="E155" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="F155" t="n">
-        <v>39466.3212</v>
+        <v>4631.2643</v>
       </c>
       <c r="G155" t="n">
-        <v>2.622000000000001</v>
+        <v>2.586833333333336</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5941,22 +5839,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C156" t="n">
         <v>2.57</v>
       </c>
       <c r="D156" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E156" t="n">
         <v>2.57</v>
       </c>
       <c r="F156" t="n">
-        <v>5720.2168</v>
+        <v>39466.3212</v>
       </c>
       <c r="G156" t="n">
-        <v>2.620500000000001</v>
+        <v>2.587666666666669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5976,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C157" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D157" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E157" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F157" t="n">
-        <v>19305.0193</v>
+        <v>5720.2168</v>
       </c>
       <c r="G157" t="n">
-        <v>2.618000000000001</v>
+        <v>2.588500000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6014,19 +5912,19 @@
         <v>2.59</v>
       </c>
       <c r="C158" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D158" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E158" t="n">
         <v>2.59</v>
       </c>
       <c r="F158" t="n">
-        <v>533106.5606</v>
+        <v>19305.0193</v>
       </c>
       <c r="G158" t="n">
-        <v>2.615500000000001</v>
+        <v>2.589666666666669</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6046,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="C159" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="D159" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="E159" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="F159" t="n">
-        <v>243913.2932</v>
+        <v>533106.5606</v>
       </c>
       <c r="G159" t="n">
-        <v>2.617</v>
+        <v>2.591166666666669</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6081,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="C160" t="n">
         <v>2.61</v>
       </c>
       <c r="D160" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="E160" t="n">
         <v>2.61</v>
       </c>
       <c r="F160" t="n">
-        <v>13000</v>
+        <v>243913.2932</v>
       </c>
       <c r="G160" t="n">
-        <v>2.615000000000001</v>
+        <v>2.593000000000003</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6116,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="C161" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D161" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="E161" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F161" t="n">
-        <v>12275</v>
+        <v>13000</v>
       </c>
       <c r="G161" t="n">
-        <v>2.6155</v>
+        <v>2.59516666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6151,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C162" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D162" t="n">
         <v>2.62</v>
       </c>
       <c r="E162" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F162" t="n">
-        <v>22064</v>
+        <v>12275</v>
       </c>
       <c r="G162" t="n">
-        <v>2.613500000000001</v>
+        <v>2.59616666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6189,19 +6087,19 @@
         <v>2.61</v>
       </c>
       <c r="C163" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D163" t="n">
         <v>2.62</v>
       </c>
       <c r="E163" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F163" t="n">
-        <v>39050</v>
+        <v>22064</v>
       </c>
       <c r="G163" t="n">
-        <v>2.6115</v>
+        <v>2.59716666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6221,7 +6119,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="C164" t="n">
         <v>2.62</v>
@@ -6230,13 +6128,13 @@
         <v>2.62</v>
       </c>
       <c r="E164" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F164" t="n">
-        <v>105520.8103</v>
+        <v>39050</v>
       </c>
       <c r="G164" t="n">
-        <v>2.61</v>
+        <v>2.598333333333336</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6256,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C165" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D165" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="E165" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F165" t="n">
-        <v>1170.1901</v>
+        <v>105520.8103</v>
       </c>
       <c r="G165" t="n">
-        <v>2.609000000000001</v>
+        <v>2.599500000000003</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6291,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="C166" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D166" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E166" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>1170.1901</v>
       </c>
       <c r="G166" t="n">
-        <v>2.608500000000001</v>
+        <v>2.600666666666669</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6326,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="C167" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="D167" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="E167" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="F167" t="n">
-        <v>105051.1915</v>
+        <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>2.609500000000001</v>
+        <v>2.602500000000003</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6361,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="C168" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="D168" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E168" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F168" t="n">
-        <v>18867.9245</v>
+        <v>105051.1915</v>
       </c>
       <c r="G168" t="n">
-        <v>2.611500000000001</v>
+        <v>2.605333333333336</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6408,10 +6306,10 @@
         <v>2.65</v>
       </c>
       <c r="F169" t="n">
-        <v>56440.7547</v>
+        <v>18867.9245</v>
       </c>
       <c r="G169" t="n">
-        <v>2.614000000000001</v>
+        <v>2.607333333333336</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6431,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="C170" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="D170" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="E170" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="F170" t="n">
-        <v>72164.7978</v>
+        <v>56440.7547</v>
       </c>
       <c r="G170" t="n">
-        <v>2.615000000000001</v>
+        <v>2.609333333333336</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6466,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C171" t="n">
         <v>2.64</v>
       </c>
-      <c r="C171" t="n">
-        <v>2.65</v>
-      </c>
       <c r="D171" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E171" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="F171" t="n">
-        <v>46415.0943</v>
+        <v>72164.7978</v>
       </c>
       <c r="G171" t="n">
-        <v>2.617500000000001</v>
+        <v>2.611166666666669</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6501,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C172" t="n">
         <v>2.65</v>
       </c>
-      <c r="C172" t="n">
-        <v>2.69</v>
-      </c>
       <c r="D172" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E172" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="F172" t="n">
-        <v>52492.2556</v>
+        <v>46415.0943</v>
       </c>
       <c r="G172" t="n">
-        <v>2.620500000000001</v>
+        <v>2.612833333333336</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6536,7 +6434,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="C173" t="n">
         <v>2.69</v>
@@ -6545,13 +6443,13 @@
         <v>2.69</v>
       </c>
       <c r="E173" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="F173" t="n">
-        <v>519498.8317</v>
+        <v>52492.2556</v>
       </c>
       <c r="G173" t="n">
-        <v>2.621</v>
+        <v>2.615166666666669</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6571,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="C174" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="D174" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="E174" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F174" t="n">
-        <v>3655.2553</v>
+        <v>519498.8317</v>
       </c>
       <c r="G174" t="n">
-        <v>2.6245</v>
+        <v>2.617166666666669</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6606,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C175" t="n">
         <v>2.65</v>
       </c>
-      <c r="C175" t="n">
-        <v>2.66</v>
-      </c>
       <c r="D175" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="E175" t="n">
         <v>2.65</v>
       </c>
       <c r="F175" t="n">
-        <v>46315.7894</v>
+        <v>3655.2553</v>
       </c>
       <c r="G175" t="n">
-        <v>2.627</v>
+        <v>2.618666666666669</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6641,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="C176" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="D176" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="E176" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="F176" t="n">
-        <v>10</v>
+        <v>46315.7894</v>
       </c>
       <c r="G176" t="n">
-        <v>2.6325</v>
+        <v>2.620166666666669</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6691,7 +6589,7 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>2.637</v>
+        <v>2.621666666666669</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6711,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.61</v>
+        <v>2.68</v>
       </c>
       <c r="C178" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="D178" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="E178" t="n">
-        <v>2.61</v>
+        <v>2.68</v>
       </c>
       <c r="F178" t="n">
-        <v>51160</v>
+        <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>2.638</v>
+        <v>2.622666666666669</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6746,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C179" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="D179" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="E179" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F179" t="n">
-        <v>246517.3396</v>
+        <v>51160</v>
       </c>
       <c r="G179" t="n">
-        <v>2.6375</v>
+        <v>2.623500000000002</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6781,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="C180" t="n">
         <v>2.61</v>
       </c>
       <c r="D180" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="E180" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F180" t="n">
-        <v>42381</v>
+        <v>246517.3396</v>
       </c>
       <c r="G180" t="n">
-        <v>2.6375</v>
+        <v>2.623500000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6816,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="C181" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D181" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="E181" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F181" t="n">
-        <v>5064</v>
+        <v>42381</v>
       </c>
       <c r="G181" t="n">
-        <v>2.6375</v>
+        <v>2.623333333333336</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6851,7 +6749,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C182" t="n">
         <v>2.64</v>
@@ -6860,13 +6758,13 @@
         <v>2.64</v>
       </c>
       <c r="E182" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="F182" t="n">
-        <v>783618.2692</v>
+        <v>5064</v>
       </c>
       <c r="G182" t="n">
-        <v>2.6375</v>
+        <v>2.623333333333336</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6886,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="C183" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D183" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E183" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="F183" t="n">
-        <v>5624</v>
+        <v>783618.2692</v>
       </c>
       <c r="G183" t="n">
-        <v>2.6385</v>
+        <v>2.623166666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6921,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="D184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="E184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F184" t="n">
-        <v>14376</v>
+        <v>5624</v>
       </c>
       <c r="G184" t="n">
-        <v>2.638</v>
+        <v>2.623500000000002</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6956,7 +6854,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="C185" t="n">
         <v>2.61</v>
@@ -6965,13 +6863,13 @@
         <v>2.61</v>
       </c>
       <c r="E185" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F185" t="n">
-        <v>41568.4087</v>
+        <v>14376</v>
       </c>
       <c r="G185" t="n">
-        <v>2.6365</v>
+        <v>2.623333333333335</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7003,10 +6901,10 @@
         <v>2.6</v>
       </c>
       <c r="F186" t="n">
-        <v>456926.0466</v>
+        <v>41568.4087</v>
       </c>
       <c r="G186" t="n">
-        <v>2.634</v>
+        <v>2.623833333333335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7021,6 +6919,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>456926.0466</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.624333333333335</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>114503.8167</v>
       </c>
       <c r="G2" t="n">
+        <v>2.547333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.544500000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>20097.4703</v>
       </c>
       <c r="G3" t="n">
+        <v>2.551333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.544666666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>38167.9389</v>
       </c>
       <c r="G4" t="n">
+        <v>2.559333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.545833333333335</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>38022.8136</v>
       </c>
       <c r="G5" t="n">
+        <v>2.565333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.545833333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1413973.7642</v>
       </c>
       <c r="G6" t="n">
+        <v>2.572666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.547000000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>853882.7686</v>
       </c>
       <c r="G7" t="n">
+        <v>2.574666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.547333333333335</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>115384.6153</v>
       </c>
       <c r="G8" t="n">
+        <v>2.578666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.547000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
+        <v>2.582666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.547000000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>960763.1453</v>
       </c>
       <c r="G10" t="n">
+        <v>2.587333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.548333333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>364550.8547</v>
       </c>
       <c r="G11" t="n">
+        <v>2.592666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.549666666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>68702.28999999999</v>
       </c>
       <c r="G12" t="n">
+        <v>2.593999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.551166666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>38167.9389</v>
       </c>
       <c r="G13" t="n">
+        <v>2.598666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.551166666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>76335.8778</v>
       </c>
       <c r="G14" t="n">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.552500000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1579.3749</v>
       </c>
       <c r="G15" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.553000000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>38022.8136</v>
       </c>
       <c r="G16" t="n">
+        <v>2.609333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.554500000000002</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7206.9375</v>
       </c>
       <c r="G17" t="n">
+        <v>2.605333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.554833333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>2.609333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.556333333333336</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1000</v>
       </c>
       <c r="G19" t="n">
+        <v>2.605333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.556833333333336</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>233241</v>
       </c>
       <c r="G20" t="n">
+        <v>2.600666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.557166666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>10000</v>
       </c>
       <c r="G21" t="n">
+        <v>2.596000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.557500000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>4000</v>
       </c>
       <c r="G22" t="n">
+        <v>2.596000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.558166666666669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>38314.1762</v>
       </c>
       <c r="G23" t="n">
+        <v>2.596666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.559333333333336</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>105029</v>
       </c>
       <c r="G24" t="n">
+        <v>2.592666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>2.560000000000003</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>25251.8199</v>
       </c>
       <c r="G25" t="n">
+        <v>2.592000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.56116666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>56816.6665</v>
       </c>
       <c r="G26" t="n">
+        <v>2.591333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.56266666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4000</v>
       </c>
       <c r="G27" t="n">
+        <v>2.587333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.563500000000003</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>38314.1762</v>
       </c>
       <c r="G28" t="n">
+        <v>2.586666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.56466666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>126580</v>
       </c>
       <c r="G29" t="n">
+        <v>2.582666666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.56516666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10000</v>
       </c>
       <c r="G30" t="n">
+        <v>2.582666666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>2.565500000000003</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>38314.1762</v>
       </c>
       <c r="G31" t="n">
+        <v>2.581333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>2.56616666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3886.59</v>
       </c>
       <c r="G32" t="n">
+        <v>2.584666666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.567500000000004</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>84151.51360000001</v>
       </c>
       <c r="G33" t="n">
+        <v>2.580666666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>2.567166666666671</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>43317.3356</v>
       </c>
       <c r="G34" t="n">
+        <v>2.580666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>2.56766666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>38314.1762</v>
       </c>
       <c r="G35" t="n">
+        <v>2.584000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>2.569000000000004</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>21883.9393</v>
       </c>
       <c r="G36" t="n">
+        <v>2.584000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>2.568666666666671</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>350071.7949</v>
       </c>
       <c r="G37" t="n">
+        <v>2.583333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.56916666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>38314.1762</v>
       </c>
       <c r="G38" t="n">
+        <v>2.580000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.569833333333337</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>95785.4406</v>
       </c>
       <c r="G39" t="n">
+        <v>2.583333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>2.571333333333337</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>348391.0306</v>
       </c>
       <c r="G40" t="n">
+        <v>2.579333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>2.571833333333337</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>114288.7719</v>
       </c>
       <c r="G41" t="n">
+        <v>2.575333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.572333333333337</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>60658.9224</v>
       </c>
       <c r="G42" t="n">
+        <v>2.574</v>
+      </c>
+      <c r="H42" t="n">
         <v>2.572666666666671</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>381377.4687</v>
       </c>
       <c r="G43" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H43" t="n">
         <v>2.573000000000004</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>13254.8604</v>
       </c>
       <c r="G44" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H44" t="n">
         <v>2.574000000000004</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>598570.7256</v>
       </c>
       <c r="G45" t="n">
+        <v>2.569333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.574333333333338</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>63906.6321</v>
       </c>
       <c r="G46" t="n">
+        <v>2.565333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>2.574500000000005</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>420094.5807</v>
       </c>
       <c r="G47" t="n">
+        <v>2.561333333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>2.574666666666672</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>154894.1855</v>
       </c>
       <c r="G48" t="n">
+        <v>2.560666666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>2.575500000000005</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1246574.9262</v>
       </c>
       <c r="G49" t="n">
+        <v>2.559999999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>2.576333333333339</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>320704.6092</v>
       </c>
       <c r="G50" t="n">
+        <v>2.555999999999998</v>
+      </c>
+      <c r="H50" t="n">
         <v>2.576500000000006</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>9532.8125</v>
       </c>
       <c r="G51" t="n">
+        <v>2.555999999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>2.577166666666672</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>220000</v>
       </c>
       <c r="G52" t="n">
+        <v>2.555999999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>2.577500000000006</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>74313.4451</v>
       </c>
       <c r="G53" t="n">
+        <v>2.555333333333331</v>
+      </c>
+      <c r="H53" t="n">
         <v>2.577666666666673</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1247471.3902</v>
       </c>
       <c r="G54" t="n">
+        <v>2.551333333333331</v>
+      </c>
+      <c r="H54" t="n">
         <v>2.577500000000006</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2040381</v>
       </c>
       <c r="G55" t="n">
+        <v>2.551333333333331</v>
+      </c>
+      <c r="H55" t="n">
         <v>2.577500000000006</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>52024.1994</v>
       </c>
       <c r="G56" t="n">
+        <v>2.551333333333331</v>
+      </c>
+      <c r="H56" t="n">
         <v>2.577666666666673</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1109543.0901</v>
       </c>
       <c r="G57" t="n">
+        <v>2.551333333333331</v>
+      </c>
+      <c r="H57" t="n">
         <v>2.576666666666673</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>3582629.6047</v>
       </c>
       <c r="G58" t="n">
+        <v>2.551333333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>2.576666666666673</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>124365.1276</v>
       </c>
       <c r="G59" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H59" t="n">
         <v>2.576666666666673</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>500896.0118</v>
       </c>
       <c r="G60" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H60" t="n">
         <v>2.576666666666673</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>89675.2721</v>
       </c>
       <c r="G61" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H61" t="n">
         <v>2.576666666666673</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>335773.6361</v>
       </c>
       <c r="G62" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H62" t="n">
         <v>2.575500000000007</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>31277.3988</v>
       </c>
       <c r="G63" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H63" t="n">
         <v>2.57533333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>174460.6011</v>
       </c>
       <c r="G64" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H64" t="n">
         <v>2.574166666666673</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>388687</v>
       </c>
       <c r="G65" t="n">
+        <v>2.550666666666664</v>
+      </c>
+      <c r="H65" t="n">
         <v>2.572833333333341</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>513319</v>
       </c>
       <c r="G66" t="n">
+        <v>2.551999999999997</v>
+      </c>
+      <c r="H66" t="n">
         <v>2.572000000000008</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>281743</v>
       </c>
       <c r="G67" t="n">
+        <v>2.551999999999997</v>
+      </c>
+      <c r="H67" t="n">
         <v>2.571833333333341</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>337005.1807</v>
       </c>
       <c r="G68" t="n">
+        <v>2.551999999999997</v>
+      </c>
+      <c r="H68" t="n">
         <v>2.571000000000008</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>53725.0034</v>
       </c>
       <c r="G69" t="n">
+        <v>2.551999999999997</v>
+      </c>
+      <c r="H69" t="n">
         <v>2.569833333333341</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>386100.5</v>
       </c>
       <c r="G70" t="n">
+        <v>2.554666666666664</v>
+      </c>
+      <c r="H70" t="n">
         <v>2.569333333333341</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
+        <v>2.555333333333331</v>
+      </c>
+      <c r="H71" t="n">
         <v>2.568333333333341</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>365.4647</v>
       </c>
       <c r="G72" t="n">
+        <v>2.555999999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>2.567166666666675</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>388558</v>
       </c>
       <c r="G73" t="n">
+        <v>2.554666666666665</v>
+      </c>
+      <c r="H73" t="n">
         <v>2.565666666666675</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1768.795</v>
       </c>
       <c r="G74" t="n">
+        <v>2.553333333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>2.564166666666674</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>171559.4594</v>
       </c>
       <c r="G75" t="n">
+        <v>2.555999999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>2.564666666666675</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>40338.8226</v>
       </c>
       <c r="G76" t="n">
+        <v>2.555999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>2.563333333333341</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>49841.4944</v>
       </c>
       <c r="G77" t="n">
+        <v>2.555999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>2.563166666666675</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>270610.2779</v>
       </c>
       <c r="G78" t="n">
+        <v>2.555999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>2.562000000000009</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>19999.7221</v>
       </c>
       <c r="G79" t="n">
+        <v>2.555999999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>2.561833333333342</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>23166.0231</v>
       </c>
       <c r="G80" t="n">
+        <v>2.559333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>2.562500000000008</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>38461.5384</v>
       </c>
       <c r="G81" t="n">
+        <v>2.560666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>2.563166666666675</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>106360.555</v>
       </c>
       <c r="G82" t="n">
+        <v>2.560666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>2.563000000000009</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>215563</v>
       </c>
       <c r="G83" t="n">
+        <v>2.560666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>2.562000000000009</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>78373</v>
       </c>
       <c r="G84" t="n">
+        <v>2.560666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>2.561833333333342</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>53922.2343</v>
       </c>
       <c r="G85" t="n">
+        <v>2.557999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>2.560833333333342</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>84766.89720000001</v>
       </c>
       <c r="G86" t="n">
+        <v>2.557333333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>2.559833333333342</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>20000</v>
       </c>
       <c r="G87" t="n">
+        <v>2.556666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>2.559500000000009</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>13243.0711</v>
       </c>
       <c r="G88" t="n">
+        <v>2.557333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>2.558333333333342</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>10131.457</v>
       </c>
       <c r="G89" t="n">
+        <v>2.557999999999998</v>
+      </c>
+      <c r="H89" t="n">
         <v>2.558000000000008</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>209684.5029</v>
       </c>
       <c r="G90" t="n">
+        <v>2.554666666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>2.557666666666675</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>215450.6152</v>
       </c>
       <c r="G91" t="n">
+        <v>2.553333333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>2.556333333333341</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>20000</v>
       </c>
       <c r="G92" t="n">
+        <v>2.551999999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.555000000000008</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>3073.3571</v>
       </c>
       <c r="G93" t="n">
+        <v>2.550666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>2.554500000000008</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,25 @@
         <v>186840.6058</v>
       </c>
       <c r="G94" t="n">
+        <v>2.548666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>2.553833333333341</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3991,29 @@
         <v>18827.5703</v>
       </c>
       <c r="G95" t="n">
+        <v>2.543333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>2.552333333333341</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4037,29 @@
         <v>550191.0251</v>
       </c>
       <c r="G96" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="H96" t="n">
         <v>2.551666666666675</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4083,29 @@
         <v>34266.8198</v>
       </c>
       <c r="G97" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="H97" t="n">
         <v>2.551166666666675</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4129,29 @@
         <v>2540.3968</v>
       </c>
       <c r="G98" t="n">
+        <v>2.534000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>2.550500000000008</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4175,29 @@
         <v>7723.5457</v>
       </c>
       <c r="G99" t="n">
+        <v>2.531333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>2.548833333333341</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4221,29 @@
         <v>31850</v>
       </c>
       <c r="G100" t="n">
+        <v>2.528000000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>2.548000000000008</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4267,29 @@
         <v>326893.1664</v>
       </c>
       <c r="G101" t="n">
+        <v>2.523333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>2.54683333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,22 +4313,29 @@
         <v>390.625</v>
       </c>
       <c r="G102" t="n">
+        <v>2.524000000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>2.547000000000007</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>2.48</v>
       </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,24 +4359,27 @@
         <v>656.8627</v>
       </c>
       <c r="G103" t="n">
+        <v>2.524666666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>2.547000000000007</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,24 +4403,27 @@
         <v>163792.5321</v>
       </c>
       <c r="G104" t="n">
+        <v>2.525333333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>2.54683333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4447,27 @@
         <v>318947.6639</v>
       </c>
       <c r="G105" t="n">
+        <v>2.526000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>2.54683333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4491,27 @@
         <v>21000</v>
       </c>
       <c r="G106" t="n">
+        <v>2.528000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>2.547000000000007</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4535,27 @@
         <v>1174217.53</v>
       </c>
       <c r="G107" t="n">
+        <v>2.528666666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>2.54683333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4579,27 @@
         <v>143952.498</v>
       </c>
       <c r="G108" t="n">
+        <v>2.524000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>2.54533333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4623,29 @@
         <v>40000</v>
       </c>
       <c r="G109" t="n">
+        <v>2.524666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>2.545000000000007</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4669,29 @@
         <v>10000</v>
       </c>
       <c r="G110" t="n">
+        <v>2.525333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>2.544666666666673</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4715,27 @@
         <v>119124.216</v>
       </c>
       <c r="G111" t="n">
+        <v>2.526000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>2.544166666666673</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4759,29 @@
         <v>18618.9664</v>
       </c>
       <c r="G112" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="H112" t="n">
         <v>2.544166666666673</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4805,29 @@
         <v>603192.745</v>
       </c>
       <c r="G113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H113" t="n">
         <v>2.544166666666673</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4851,27 @@
         <v>643230.785</v>
       </c>
       <c r="G114" t="n">
+        <v>2.534</v>
+      </c>
+      <c r="H114" t="n">
         <v>2.544500000000006</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4895,29 @@
         <v>164528.6174</v>
       </c>
       <c r="G115" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="H115" t="n">
         <v>2.544666666666672</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4941,29 @@
         <v>29569</v>
       </c>
       <c r="G116" t="n">
+        <v>2.544</v>
+      </c>
+      <c r="H116" t="n">
         <v>2.545000000000006</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4987,29 @@
         <v>639003.3281</v>
       </c>
       <c r="G117" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="H117" t="n">
         <v>2.545666666666672</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5033,27 @@
         <v>523914.4906</v>
       </c>
       <c r="G118" t="n">
+        <v>2.550666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>2.546833333333339</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5077,27 @@
         <v>20000</v>
       </c>
       <c r="G119" t="n">
+        <v>2.555333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>2.548000000000005</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5121,27 @@
         <v>10000</v>
       </c>
       <c r="G120" t="n">
+        <v>2.559333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>2.549000000000005</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5165,27 @@
         <v>26145</v>
       </c>
       <c r="G121" t="n">
+        <v>2.563333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>2.550166666666672</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5209,27 @@
         <v>120338.1925</v>
       </c>
       <c r="G122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H122" t="n">
         <v>2.551666666666671</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5253,27 @@
         <v>119999.1064</v>
       </c>
       <c r="G123" t="n">
+        <v>2.582666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>2.553333333333338</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5297,27 @@
         <v>110886.3087</v>
       </c>
       <c r="G124" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="H124" t="n">
         <v>2.554333333333338</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5341,27 @@
         <v>2113622.1453</v>
       </c>
       <c r="G125" t="n">
+        <v>2.593999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>2.555500000000004</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5385,27 @@
         <v>100497.5</v>
       </c>
       <c r="G126" t="n">
+        <v>2.597333333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>2.555500000000004</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5429,27 @@
         <v>69582</v>
       </c>
       <c r="G127" t="n">
+        <v>2.599333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>2.556000000000004</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5473,27 @@
         <v>671588.8382</v>
       </c>
       <c r="G128" t="n">
+        <v>2.601333333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>2.556500000000005</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5517,27 @@
         <v>59991.2849</v>
       </c>
       <c r="G129" t="n">
+        <v>2.601999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>2.557000000000004</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5561,27 @@
         <v>114503.8167</v>
       </c>
       <c r="G130" t="n">
+        <v>2.605999999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>2.557500000000005</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5605,27 @@
         <v>37878.7878</v>
       </c>
       <c r="G131" t="n">
+        <v>2.611333333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>2.559000000000005</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5649,27 @@
         <v>56390.9774</v>
       </c>
       <c r="G132" t="n">
+        <v>2.615999999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>2.560666666666671</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5693,27 @@
         <v>114922.8742</v>
       </c>
       <c r="G133" t="n">
+        <v>2.612666666666665</v>
+      </c>
+      <c r="H133" t="n">
         <v>2.561333333333338</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5737,27 @@
         <v>19157.0881</v>
       </c>
       <c r="G134" t="n">
+        <v>2.610666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>2.562333333333338</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5781,27 @@
         <v>162631.2594</v>
       </c>
       <c r="G135" t="n">
+        <v>2.607999999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>2.562000000000004</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5825,27 @@
         <v>80769.2307</v>
       </c>
       <c r="G136" t="n">
+        <v>2.606666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>2.562833333333337</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5869,27 @@
         <v>22988.5057</v>
       </c>
       <c r="G137" t="n">
+        <v>2.604666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>2.563833333333337</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5913,27 @@
         <v>15094.3396</v>
       </c>
       <c r="G138" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="H138" t="n">
         <v>2.565333333333337</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5957,27 @@
         <v>3787.8787</v>
       </c>
       <c r="G139" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="H139" t="n">
         <v>2.566833333333336</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +6001,27 @@
         <v>3398521.2855</v>
       </c>
       <c r="G140" t="n">
+        <v>2.607333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>2.567500000000003</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6045,27 @@
         <v>1546918.1278</v>
       </c>
       <c r="G141" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="H141" t="n">
         <v>2.567333333333337</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6089,27 @@
         <v>1000</v>
       </c>
       <c r="G142" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H142" t="n">
         <v>2.568333333333336</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6133,27 @@
         <v>37593.9849</v>
       </c>
       <c r="G143" t="n">
+        <v>2.614666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>2.570000000000003</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6177,27 @@
         <v>18726.5917</v>
       </c>
       <c r="G144" t="n">
+        <v>2.619333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>2.57166666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6221,27 @@
         <v>18796.9924</v>
       </c>
       <c r="G145" t="n">
+        <v>2.621333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>2.573333333333336</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6265,27 @@
         <v>3773.5849</v>
       </c>
       <c r="G146" t="n">
+        <v>2.621333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>2.575000000000003</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6309,27 @@
         <v>57037.9849</v>
       </c>
       <c r="G147" t="n">
+        <v>2.618000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>2.576000000000003</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6353,27 @@
         <v>38453.1835</v>
       </c>
       <c r="G148" t="n">
+        <v>2.624666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>2.578166666666669</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6397,27 @@
         <v>114029.0368</v>
       </c>
       <c r="G149" t="n">
+        <v>2.624666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>2.579000000000003</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6441,27 @@
         <v>8841</v>
       </c>
       <c r="G150" t="n">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>2.580000000000003</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6485,27 @@
         <v>37878.7878</v>
       </c>
       <c r="G151" t="n">
+        <v>2.628666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>2.58166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6529,27 @@
         <v>90861.1683</v>
       </c>
       <c r="G152" t="n">
+        <v>2.627333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>2.58266666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6573,27 @@
         <v>84986.0802</v>
       </c>
       <c r="G153" t="n">
+        <v>2.624666666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>2.583833333333336</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6617,27 @@
         <v>19157.0881</v>
       </c>
       <c r="G154" t="n">
+        <v>2.622666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>2.585333333333336</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6661,27 @@
         <v>4631.2643</v>
       </c>
       <c r="G155" t="n">
+        <v>2.620666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>2.586833333333336</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6705,27 @@
         <v>39466.3212</v>
       </c>
       <c r="G156" t="n">
+        <v>2.619333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>2.587666666666669</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6749,27 @@
         <v>5720.2168</v>
       </c>
       <c r="G157" t="n">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>2.588500000000002</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6793,27 @@
         <v>19305.0193</v>
       </c>
       <c r="G158" t="n">
+        <v>2.612666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>2.589666666666669</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6837,27 @@
         <v>533106.5606</v>
       </c>
       <c r="G159" t="n">
+        <v>2.609333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>2.591166666666669</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6881,27 @@
         <v>243913.2932</v>
       </c>
       <c r="G160" t="n">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>2.593000000000003</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6925,27 @@
         <v>13000</v>
       </c>
       <c r="G161" t="n">
+        <v>2.604000000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>2.59516666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6969,27 @@
         <v>12275</v>
       </c>
       <c r="G162" t="n">
+        <v>2.604666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>2.59616666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +7013,27 @@
         <v>22064</v>
       </c>
       <c r="G163" t="n">
+        <v>2.600666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>2.59716666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +7057,27 @@
         <v>39050</v>
       </c>
       <c r="G164" t="n">
+        <v>2.602666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>2.598333333333336</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +7101,27 @@
         <v>105520.8103</v>
       </c>
       <c r="G165" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="H165" t="n">
         <v>2.599500000000003</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +7145,27 @@
         <v>1170.1901</v>
       </c>
       <c r="G166" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="H166" t="n">
         <v>2.600666666666669</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7189,27 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="H167" t="n">
         <v>2.602500000000003</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7233,27 @@
         <v>105051.1915</v>
       </c>
       <c r="G168" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H168" t="n">
         <v>2.605333333333336</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7277,27 @@
         <v>18867.9245</v>
       </c>
       <c r="G169" t="n">
+        <v>2.612666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>2.607333333333336</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7321,27 @@
         <v>56440.7547</v>
       </c>
       <c r="G170" t="n">
+        <v>2.615333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>2.609333333333336</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7365,27 @@
         <v>72164.7978</v>
       </c>
       <c r="G171" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H171" t="n">
         <v>2.611166666666669</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7409,27 @@
         <v>46415.0943</v>
       </c>
       <c r="G172" t="n">
+        <v>2.625333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>2.612833333333336</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7453,27 @@
         <v>52492.2556</v>
       </c>
       <c r="G173" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="H173" t="n">
         <v>2.615166666666669</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7497,27 @@
         <v>519498.8317</v>
       </c>
       <c r="G174" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="H174" t="n">
         <v>2.617166666666669</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7541,27 @@
         <v>3655.2553</v>
       </c>
       <c r="G175" t="n">
+        <v>2.640666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>2.618666666666669</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7585,27 @@
         <v>46315.7894</v>
       </c>
       <c r="G176" t="n">
+        <v>2.644</v>
+      </c>
+      <c r="H176" t="n">
         <v>2.620166666666669</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7629,27 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="H177" t="n">
         <v>2.621666666666669</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,19 +7673,28 @@
         <v>10</v>
       </c>
       <c r="G178" t="n">
+        <v>2.652666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>2.622666666666669</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
+      <c r="L178" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1.054288537549407</v>
       </c>
     </row>
     <row r="179">
@@ -6659,18 +7717,21 @@
         <v>51160</v>
       </c>
       <c r="G179" t="n">
+        <v>2.656</v>
+      </c>
+      <c r="H179" t="n">
         <v>2.623500000000002</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7755,21 @@
         <v>246517.3396</v>
       </c>
       <c r="G180" t="n">
+        <v>2.655333333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>2.623500000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7793,21 @@
         <v>42381</v>
       </c>
       <c r="G181" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="H181" t="n">
         <v>2.623333333333336</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7831,21 @@
         <v>5064</v>
       </c>
       <c r="G182" t="n">
+        <v>2.653333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>2.623333333333336</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7869,21 @@
         <v>783618.2692</v>
       </c>
       <c r="G183" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="H183" t="n">
         <v>2.623166666666669</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7907,21 @@
         <v>5624</v>
       </c>
       <c r="G184" t="n">
+        <v>2.652666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>2.623500000000002</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7945,21 @@
         <v>14376</v>
       </c>
       <c r="G185" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H185" t="n">
         <v>2.623333333333335</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7983,21 @@
         <v>41568.4087</v>
       </c>
       <c r="G186" t="n">
+        <v>2.648000000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>2.623833333333335</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +8021,401 @@
         <v>456926.0466</v>
       </c>
       <c r="G187" t="n">
+        <v>2.645333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>2.624333333333335</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F188" t="n">
+        <v>11363.6363</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2.642000000000001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2.625333333333335</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21.9725</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2.636000000000001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.625666666666668</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>65208.9389</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2.634666666666668</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2.625833333333334</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>151.8715</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2.630666666666668</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2.625000000000001</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F192" t="n">
+        <v>35115</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2.627333333333335</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2.624500000000001</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F193" t="n">
+        <v>8770</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.623333333333335</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2.625333333333335</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F194" t="n">
+        <v>875564.7424</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2.620666666666668</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2.626000000000001</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>321284.5971</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2.622666666666668</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2.627166666666668</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1349.3181</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2.624666666666668</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2.627833333333334</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F197" t="n">
+        <v>51206</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2.624000000000002</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.628166666666667</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="C2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="E2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>1579.3749</v>
       </c>
       <c r="G2" t="n">
-        <v>-3689147.4236</v>
+        <v>2.5925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="C3" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="D3" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="E3" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>38022.8136</v>
       </c>
       <c r="G3" t="n">
-        <v>-3689159.4236</v>
+        <v>2.597</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="C4" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D4" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="E4" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F4" t="n">
-        <v>32697.1414</v>
+        <v>7206.9375</v>
       </c>
       <c r="G4" t="n">
-        <v>-3689159.4236</v>
+        <v>2.594500000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="C5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="D5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="E5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-3689149.4236</v>
+        <v>2.5985</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="C6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="D6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="E6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>-3689159.4236</v>
+        <v>2.599000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="C7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="D7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="E7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="F7" t="n">
-        <v>39995</v>
+        <v>233241</v>
       </c>
       <c r="G7" t="n">
-        <v>-3689159.4236</v>
+        <v>2.599000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="C8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="D8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="E8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="F8" t="n">
-        <v>193147.1437</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="n">
-        <v>-3689159.4236</v>
+        <v>2.599000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="C9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="D9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="E9" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="F9" t="n">
-        <v>46557.6749</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="n">
-        <v>-3689159.4236</v>
+        <v>2.596500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="C10" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="D10" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="E10" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="F10" t="n">
-        <v>15797.7292</v>
+        <v>38314.1762</v>
       </c>
       <c r="G10" t="n">
-        <v>-3689159.4236</v>
+        <v>2.598500000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="C11" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D11" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="E11" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F11" t="n">
-        <v>7636.4665</v>
+        <v>105029</v>
       </c>
       <c r="G11" t="n">
-        <v>-3681522.9571</v>
+        <v>2.595500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="C12" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="D12" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="E12" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="F12" t="n">
-        <v>155475.4212</v>
+        <v>25251.8199</v>
       </c>
       <c r="G12" t="n">
-        <v>-3681522.9571</v>
+        <v>2.594500000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="C13" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="D13" t="n">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="F13" t="n">
-        <v>28612.2755</v>
+        <v>56816.6665</v>
       </c>
       <c r="G13" t="n">
-        <v>-3710135.2326</v>
+        <v>2.594500000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="C14" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="D14" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="E14" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F14" t="n">
-        <v>7727</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="n">
-        <v>-3702408.2326</v>
+        <v>2.593000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="D15" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="E15" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>38314.1762</v>
       </c>
       <c r="G15" t="n">
-        <v>-3702208.2326</v>
+        <v>2.592000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="C16" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="D16" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="E16" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="F16" t="n">
-        <v>9288.4773</v>
+        <v>126580</v>
       </c>
       <c r="G16" t="n">
-        <v>-3702208.2326</v>
+        <v>2.589500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="C17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="D17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="n">
-        <v>-3702708.2326</v>
+        <v>2.589000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="C18" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="F18" t="n">
-        <v>92785.59970000001</v>
+        <v>38314.1762</v>
       </c>
       <c r="G18" t="n">
-        <v>-3702708.2326</v>
+        <v>2.588500000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="C19" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="D19" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="E19" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="F19" t="n">
-        <v>70392.1152</v>
+        <v>3886.59</v>
       </c>
       <c r="G19" t="n">
-        <v>-3632316.1174</v>
+        <v>2.587500000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="C20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="D20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="E20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>84151.51360000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-3633316.1174</v>
+        <v>2.584500000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="C21" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D21" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="E21" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>43317.3356</v>
       </c>
       <c r="G21" t="n">
-        <v>-3632316.1174</v>
+        <v>2.581500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="C22" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="D22" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E22" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="F22" t="n">
-        <v>130721.732</v>
+        <v>38314.1762</v>
       </c>
       <c r="G22" t="n">
-        <v>-3501594.3854</v>
+        <v>2.584000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,13 +1187,14 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C23" t="n">
         <v>2.56</v>
@@ -1177,13 +1203,13 @@
         <v>2.56</v>
       </c>
       <c r="E23" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F23" t="n">
-        <v>17802.9719</v>
+        <v>21883.9393</v>
       </c>
       <c r="G23" t="n">
-        <v>-3483791.413500001</v>
+        <v>2.580500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1215,10 +1242,10 @@
         <v>2.55</v>
       </c>
       <c r="F24" t="n">
-        <v>1760</v>
+        <v>350071.7949</v>
       </c>
       <c r="G24" t="n">
-        <v>-3485551.413500001</v>
+        <v>2.580500000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="C25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="D25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="E25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>38314.1762</v>
       </c>
       <c r="G25" t="n">
-        <v>-3486551.413500001</v>
+        <v>2.577500000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,13 +1295,14 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C26" t="n">
         <v>2.61</v>
@@ -1282,13 +1311,13 @@
         <v>2.61</v>
       </c>
       <c r="E26" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>95785.4406</v>
       </c>
       <c r="G26" t="n">
-        <v>-3486541.413500001</v>
+        <v>2.577500000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="C27" t="n">
         <v>2.55</v>
       </c>
       <c r="D27" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="E27" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="F27" t="n">
-        <v>2837</v>
+        <v>348391.0306</v>
       </c>
       <c r="G27" t="n">
-        <v>-3489378.413500001</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1349,16 +1380,16 @@
         <v>2.55</v>
       </c>
       <c r="D28" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E28" t="n">
         <v>2.55</v>
       </c>
       <c r="F28" t="n">
-        <v>27614.8267</v>
+        <v>114288.7719</v>
       </c>
       <c r="G28" t="n">
-        <v>-3489378.413500001</v>
+        <v>2.579500000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C29" t="n">
         <v>2.55</v>
       </c>
       <c r="D29" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E29" t="n">
         <v>2.55</v>
       </c>
       <c r="F29" t="n">
-        <v>29862</v>
+        <v>60658.9224</v>
       </c>
       <c r="G29" t="n">
-        <v>-3489378.413500001</v>
+        <v>2.580500000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C30" t="n">
         <v>2.55</v>
       </c>
       <c r="D30" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E30" t="n">
         <v>2.55</v>
       </c>
       <c r="F30" t="n">
-        <v>128888.9567</v>
+        <v>381377.4687</v>
       </c>
       <c r="G30" t="n">
-        <v>-3489378.413500001</v>
+        <v>2.578000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="C31" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="D31" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="E31" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="F31" t="n">
-        <v>114503.8167</v>
+        <v>13254.8604</v>
       </c>
       <c r="G31" t="n">
-        <v>-3374874.596800001</v>
+        <v>2.578500000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1486,19 +1521,19 @@
         <v>2.56</v>
       </c>
       <c r="C32" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D32" t="n">
         <v>2.56</v>
       </c>
       <c r="E32" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F32" t="n">
-        <v>20097.4703</v>
+        <v>598570.7256</v>
       </c>
       <c r="G32" t="n">
-        <v>-3394972.067100001</v>
+        <v>2.576000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="C33" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D33" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E33" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="F33" t="n">
-        <v>38167.9389</v>
+        <v>63906.6321</v>
       </c>
       <c r="G33" t="n">
-        <v>-3356804.128200001</v>
+        <v>2.573000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="C34" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="D34" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="E34" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="F34" t="n">
-        <v>38022.8136</v>
+        <v>420094.5807</v>
       </c>
       <c r="G34" t="n">
-        <v>-3318781.314600001</v>
+        <v>2.572000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C35" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="D35" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="E35" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F35" t="n">
-        <v>1413973.7642</v>
+        <v>154894.1855</v>
       </c>
       <c r="G35" t="n">
-        <v>-3318781.314600001</v>
+        <v>2.569500000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="C36" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D36" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="E36" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F36" t="n">
-        <v>853882.7686</v>
+        <v>1246574.9262</v>
       </c>
       <c r="G36" t="n">
-        <v>-4172664.083200001</v>
+        <v>2.568500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="C37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D37" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F37" t="n">
-        <v>115384.6153</v>
+        <v>320704.6092</v>
       </c>
       <c r="G37" t="n">
-        <v>-4057279.467900001</v>
+        <v>2.568000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="C38" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="D38" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="E38" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>9532.8125</v>
       </c>
       <c r="G38" t="n">
-        <v>-4057079.467900001</v>
+        <v>2.565500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C39" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D39" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E39" t="n">
         <v>2.55</v>
       </c>
       <c r="F39" t="n">
-        <v>960763.1453</v>
+        <v>220000</v>
       </c>
       <c r="G39" t="n">
-        <v>-4057079.467900001</v>
+        <v>2.5625</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="C40" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D40" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E40" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="F40" t="n">
-        <v>364550.8547</v>
+        <v>74313.4451</v>
       </c>
       <c r="G40" t="n">
-        <v>-4057079.467900001</v>
+        <v>2.562</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,133 +1835,157 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="C41" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="D41" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="E41" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="F41" t="n">
-        <v>68702.28999999999</v>
+        <v>1247471.3902</v>
       </c>
       <c r="G41" t="n">
-        <v>-3988377.177900001</v>
+        <v>2.5615</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.55</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="C42" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D42" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E42" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="F42" t="n">
-        <v>38167.9389</v>
+        <v>2040381</v>
       </c>
       <c r="G42" t="n">
-        <v>-4026545.116800001</v>
+        <v>2.5585</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="C43" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D43" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E43" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="F43" t="n">
-        <v>76335.8778</v>
+        <v>52024.1994</v>
       </c>
       <c r="G43" t="n">
-        <v>-4026545.116800001</v>
+        <v>2.557999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C44" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D44" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E44" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F44" t="n">
-        <v>1579.3749</v>
+        <v>1109543.0901</v>
       </c>
       <c r="G44" t="n">
-        <v>-4028124.491700001</v>
+        <v>2.557499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1999,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="C45" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="D45" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="E45" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="F45" t="n">
-        <v>38022.8136</v>
+        <v>3582629.6047</v>
       </c>
       <c r="G45" t="n">
-        <v>-3990101.678100001</v>
+        <v>2.556999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2035,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C46" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D46" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E46" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F46" t="n">
-        <v>7206.9375</v>
+        <v>124365.1276</v>
       </c>
       <c r="G46" t="n">
-        <v>-3997308.615600001</v>
+        <v>2.556499999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2071,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="C47" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D47" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E47" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>500896.0118</v>
       </c>
       <c r="G47" t="n">
-        <v>-3997298.615600001</v>
+        <v>2.553499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2107,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C48" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D48" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E48" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>89675.2721</v>
       </c>
       <c r="G48" t="n">
-        <v>-3998298.615600001</v>
+        <v>2.553499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2143,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C49" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D49" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E49" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F49" t="n">
-        <v>233241</v>
+        <v>335773.6361</v>
       </c>
       <c r="G49" t="n">
-        <v>-3998298.615600001</v>
+        <v>2.551999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2179,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E50" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F50" t="n">
-        <v>10000</v>
+        <v>31277.3988</v>
       </c>
       <c r="G50" t="n">
-        <v>-3998298.615600001</v>
+        <v>2.551999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2215,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C51" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D51" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E51" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>174460.6011</v>
       </c>
       <c r="G51" t="n">
-        <v>-3998298.615600001</v>
+        <v>2.550999999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2251,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="C52" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="D52" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="E52" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F52" t="n">
-        <v>38314.1762</v>
+        <v>388687</v>
       </c>
       <c r="G52" t="n">
-        <v>-3959984.439400001</v>
+        <v>2.550499999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2287,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C53" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D53" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E53" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F53" t="n">
-        <v>105029</v>
+        <v>513319</v>
       </c>
       <c r="G53" t="n">
-        <v>-4065013.439400001</v>
+        <v>2.551999999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2323,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="C54" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="D54" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="E54" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F54" t="n">
-        <v>25251.8199</v>
+        <v>281743</v>
       </c>
       <c r="G54" t="n">
-        <v>-4039761.619500001</v>
+        <v>2.553499999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2359,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C55" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="D55" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="E55" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F55" t="n">
-        <v>56816.6665</v>
+        <v>337005.1807</v>
       </c>
       <c r="G55" t="n">
-        <v>-4039761.619500001</v>
+        <v>2.553499999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2395,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C56" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D56" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="E56" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>53725.0034</v>
       </c>
       <c r="G56" t="n">
-        <v>-4043761.619500001</v>
+        <v>2.553499999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2431,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="C57" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="D57" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="E57" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F57" t="n">
-        <v>38314.1762</v>
+        <v>386100.5</v>
       </c>
       <c r="G57" t="n">
-        <v>-4005447.443300001</v>
+        <v>2.555499999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2467,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C58" t="n">
         <v>2.56</v>
       </c>
       <c r="D58" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E58" t="n">
         <v>2.56</v>
       </c>
       <c r="F58" t="n">
-        <v>126580</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>-4132027.443300001</v>
+        <v>2.555499999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2503,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2440,10 +2522,10 @@
         <v>2.56</v>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>365.4647</v>
       </c>
       <c r="G59" t="n">
-        <v>-4132027.443300001</v>
+        <v>2.555999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2539,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C60" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="D60" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="E60" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="F60" t="n">
-        <v>38314.1762</v>
+        <v>388558</v>
       </c>
       <c r="G60" t="n">
-        <v>-4093713.267100001</v>
+        <v>2.555999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2575,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="C61" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="D61" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="E61" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="F61" t="n">
-        <v>3886.59</v>
+        <v>1768.795</v>
       </c>
       <c r="G61" t="n">
-        <v>-4093713.267100001</v>
+        <v>2.554999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2611,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C62" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="D62" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E62" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F62" t="n">
-        <v>84151.51360000001</v>
+        <v>171559.4594</v>
       </c>
       <c r="G62" t="n">
-        <v>-4177864.780700001</v>
+        <v>2.556999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2647,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C63" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D63" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E63" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F63" t="n">
-        <v>43317.3356</v>
+        <v>40338.8226</v>
       </c>
       <c r="G63" t="n">
-        <v>-4177864.780700001</v>
+        <v>2.556999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2683,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C64" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="D64" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="E64" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F64" t="n">
-        <v>38314.1762</v>
+        <v>49841.4944</v>
       </c>
       <c r="G64" t="n">
-        <v>-4139550.604500001</v>
+        <v>2.556999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2719,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C65" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D65" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E65" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F65" t="n">
-        <v>21883.9393</v>
+        <v>270610.2779</v>
       </c>
       <c r="G65" t="n">
-        <v>-4161434.543800001</v>
+        <v>2.559</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2755,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C66" t="n">
         <v>2.55</v>
       </c>
       <c r="D66" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E66" t="n">
         <v>2.55</v>
       </c>
       <c r="F66" t="n">
-        <v>350071.7949</v>
+        <v>19999.7221</v>
       </c>
       <c r="G66" t="n">
-        <v>-4511506.338700001</v>
+        <v>2.559</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2791,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C67" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="E67" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F67" t="n">
-        <v>38314.1762</v>
+        <v>23166.0231</v>
       </c>
       <c r="G67" t="n">
-        <v>-4473192.162500001</v>
+        <v>2.561</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2827,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C68" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="E68" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F68" t="n">
-        <v>95785.4406</v>
+        <v>38461.5384</v>
       </c>
       <c r="G68" t="n">
-        <v>-4377406.721900001</v>
+        <v>2.563</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2863,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C69" t="n">
         <v>2.55</v>
       </c>
       <c r="D69" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="E69" t="n">
         <v>2.55</v>
       </c>
       <c r="F69" t="n">
-        <v>348391.0306</v>
+        <v>106360.555</v>
       </c>
       <c r="G69" t="n">
-        <v>-4725797.752500001</v>
+        <v>2.563</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2899,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2825,10 +2918,10 @@
         <v>2.55</v>
       </c>
       <c r="F70" t="n">
-        <v>114288.7719</v>
+        <v>215563</v>
       </c>
       <c r="G70" t="n">
-        <v>-4725797.752500001</v>
+        <v>2.563</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2935,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C71" t="n">
         <v>2.55</v>
       </c>
       <c r="D71" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E71" t="n">
         <v>2.55</v>
       </c>
       <c r="F71" t="n">
-        <v>60658.9224</v>
+        <v>78373</v>
       </c>
       <c r="G71" t="n">
-        <v>-4725797.752500001</v>
+        <v>2.563</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2971,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C72" t="n">
         <v>2.55</v>
       </c>
       <c r="D72" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E72" t="n">
         <v>2.55</v>
       </c>
       <c r="F72" t="n">
-        <v>381377.4687</v>
+        <v>53922.2343</v>
       </c>
       <c r="G72" t="n">
-        <v>-4725797.752500001</v>
+        <v>2.5635</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3007,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C73" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D73" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E73" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F73" t="n">
-        <v>13254.8604</v>
+        <v>84766.89720000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-4712542.892100002</v>
+        <v>2.562</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3043,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C74" t="n">
         <v>2.55</v>
       </c>
       <c r="D74" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E74" t="n">
         <v>2.55</v>
       </c>
       <c r="F74" t="n">
-        <v>598570.7256</v>
+        <v>20000</v>
       </c>
       <c r="G74" t="n">
-        <v>-5311113.617700001</v>
+        <v>2.5605</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3079,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="C75" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="D75" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="E75" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="F75" t="n">
-        <v>63906.6321</v>
+        <v>13243.0711</v>
       </c>
       <c r="G75" t="n">
-        <v>-5311113.617700001</v>
+        <v>2.56</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3115,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="C76" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="D76" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="E76" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="F76" t="n">
-        <v>420094.5807</v>
+        <v>10131.457</v>
       </c>
       <c r="G76" t="n">
-        <v>-5311113.617700001</v>
+        <v>2.559500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3151,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C77" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="D77" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="E77" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F77" t="n">
-        <v>154894.1855</v>
+        <v>209684.5029</v>
       </c>
       <c r="G77" t="n">
-        <v>-5311113.617700001</v>
+        <v>2.556500000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3187,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C78" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D78" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E78" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F78" t="n">
-        <v>1246574.9262</v>
+        <v>215450.6152</v>
       </c>
       <c r="G78" t="n">
-        <v>-5311113.617700001</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,391 +3223,483 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C79" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D79" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E79" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F79" t="n">
-        <v>320704.6092</v>
+        <v>20000</v>
       </c>
       <c r="G79" t="n">
-        <v>-5311113.617700001</v>
+        <v>2.553500000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.53</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="C80" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="D80" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="E80" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="F80" t="n">
-        <v>9532.8125</v>
+        <v>3073.3571</v>
       </c>
       <c r="G80" t="n">
-        <v>-5301580.805200001</v>
+        <v>2.552500000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="C81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="D81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="E81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F81" t="n">
-        <v>220000</v>
+        <v>186840.6058</v>
       </c>
       <c r="G81" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.552</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="C82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="D82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="E82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F82" t="n">
-        <v>74313.4451</v>
+        <v>18827.5703</v>
       </c>
       <c r="G82" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.548500000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2.52</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C83" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="D83" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E83" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F83" t="n">
-        <v>1247471.3902</v>
+        <v>550191.0251</v>
       </c>
       <c r="G83" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.547500000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="C84" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="D84" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="E84" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F84" t="n">
-        <v>2040381</v>
+        <v>34266.8198</v>
       </c>
       <c r="G84" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.546000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="C85" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="D85" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="E85" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F85" t="n">
-        <v>52024.1994</v>
+        <v>2540.3968</v>
       </c>
       <c r="G85" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.542500000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="C86" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="D86" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="E86" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="F86" t="n">
-        <v>1109543.0901</v>
+        <v>7723.5457</v>
       </c>
       <c r="G86" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.540500000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="C87" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="D87" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="E87" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="F87" t="n">
-        <v>3582629.6047</v>
+        <v>31850</v>
       </c>
       <c r="G87" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.536000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="C88" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="D88" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="E88" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="F88" t="n">
-        <v>124365.1276</v>
+        <v>326893.1664</v>
       </c>
       <c r="G88" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.531000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C89" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D89" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E89" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F89" t="n">
-        <v>500896.0118</v>
+        <v>390.625</v>
       </c>
       <c r="G89" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.531500000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3525,23 +3718,32 @@
         <v>2.55</v>
       </c>
       <c r="F90" t="n">
-        <v>89675.2721</v>
+        <v>656.8627</v>
       </c>
       <c r="G90" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.531500000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3560,10 +3762,10 @@
         <v>2.55</v>
       </c>
       <c r="F91" t="n">
-        <v>335773.6361</v>
+        <v>163792.5321</v>
       </c>
       <c r="G91" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.531500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,11 +3774,18 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3595,10 +3804,10 @@
         <v>2.55</v>
       </c>
       <c r="F92" t="n">
-        <v>31277.3988</v>
+        <v>318947.6639</v>
       </c>
       <c r="G92" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.531000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,11 +3816,18 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3621,19 +3837,19 @@
         <v>2.55</v>
       </c>
       <c r="C93" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D93" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E93" t="n">
         <v>2.55</v>
       </c>
       <c r="F93" t="n">
-        <v>174460.6011</v>
+        <v>21000</v>
       </c>
       <c r="G93" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.531000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +3858,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="C94" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="D94" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="E94" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="F94" t="n">
-        <v>388687</v>
+        <v>1174217.53</v>
       </c>
       <c r="G94" t="n">
-        <v>-5521580.805200001</v>
+        <v>2.527500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +3900,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="C95" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="D95" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="E95" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="F95" t="n">
-        <v>513319</v>
+        <v>143952.498</v>
       </c>
       <c r="G95" t="n">
-        <v>-5008261.805200001</v>
+        <v>2.524000000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,208 +3942,260 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="C96" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D96" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="E96" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F96" t="n">
-        <v>281743</v>
+        <v>40000</v>
       </c>
       <c r="G96" t="n">
-        <v>-5290004.805200001</v>
+        <v>2.523000000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C97" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D97" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E97" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F97" t="n">
-        <v>337005.1807</v>
+        <v>10000</v>
       </c>
       <c r="G97" t="n">
-        <v>-5290004.805200001</v>
+        <v>2.523000000000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C98" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D98" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E98" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F98" t="n">
-        <v>53725.0034</v>
+        <v>119124.216</v>
       </c>
       <c r="G98" t="n">
-        <v>-5290004.805200001</v>
+        <v>2.523000000000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="C99" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D99" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E99" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="F99" t="n">
-        <v>386100.5</v>
+        <v>18618.9664</v>
       </c>
       <c r="G99" t="n">
-        <v>-4903904.305200001</v>
+        <v>2.523500000000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C100" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="D100" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="E100" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>603192.745</v>
       </c>
       <c r="G100" t="n">
-        <v>-4904904.305200001</v>
+        <v>2.524500000000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="C101" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D101" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E101" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="F101" t="n">
-        <v>365.4647</v>
+        <v>643230.785</v>
       </c>
       <c r="G101" t="n">
-        <v>-4904904.305200001</v>
+        <v>2.525000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4204,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="C102" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D102" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E102" t="n">
         <v>2.53</v>
       </c>
       <c r="F102" t="n">
-        <v>388558</v>
+        <v>164528.6174</v>
       </c>
       <c r="G102" t="n">
-        <v>-5293462.305200001</v>
+        <v>2.526000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4246,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="C103" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="D103" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="E103" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F103" t="n">
-        <v>1768.795</v>
+        <v>29569</v>
       </c>
       <c r="G103" t="n">
-        <v>-5293462.305200001</v>
+        <v>2.527500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,18 +4288,25 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C104" t="n">
         <v>2.59</v>
@@ -4012,13 +4315,13 @@
         <v>2.59</v>
       </c>
       <c r="E104" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F104" t="n">
-        <v>171559.4594</v>
+        <v>639003.3281</v>
       </c>
       <c r="G104" t="n">
-        <v>-5121902.845800001</v>
+        <v>2.530000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4330,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="C105" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="D105" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E105" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="F105" t="n">
-        <v>40338.8226</v>
+        <v>523914.4906</v>
       </c>
       <c r="G105" t="n">
-        <v>-5162241.668400001</v>
+        <v>2.534000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4372,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="C106" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="D106" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E106" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="F106" t="n">
-        <v>49841.4944</v>
+        <v>20000</v>
       </c>
       <c r="G106" t="n">
-        <v>-5162241.668400001</v>
+        <v>2.539500000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4414,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="C107" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D107" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="E107" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="F107" t="n">
-        <v>270610.2779</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="n">
-        <v>-5162241.668400001</v>
+        <v>2.545000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4456,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="C108" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="D108" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E108" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="F108" t="n">
-        <v>19999.7221</v>
+        <v>26145</v>
       </c>
       <c r="G108" t="n">
-        <v>-5162241.668400001</v>
+        <v>2.551000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,33 +4498,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="C109" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="D109" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="E109" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="F109" t="n">
-        <v>23166.0231</v>
+        <v>120338.1925</v>
       </c>
       <c r="G109" t="n">
-        <v>-5139075.645300001</v>
+        <v>2.554000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4540,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="C110" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="D110" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="E110" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="F110" t="n">
-        <v>38461.5384</v>
+        <v>119999.1064</v>
       </c>
       <c r="G110" t="n">
-        <v>-5139075.645300001</v>
+        <v>2.558000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4582,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D111" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E111" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="F111" t="n">
-        <v>106360.555</v>
+        <v>110886.3087</v>
       </c>
       <c r="G111" t="n">
-        <v>-5245436.200300001</v>
+        <v>2.561500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,33 +4624,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E112" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="F112" t="n">
-        <v>215563</v>
+        <v>2113622.1453</v>
       </c>
       <c r="G112" t="n">
-        <v>-5245436.200300001</v>
+        <v>2.564500000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,33 +4666,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D113" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E113" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F113" t="n">
-        <v>78373</v>
+        <v>100497.5</v>
       </c>
       <c r="G113" t="n">
-        <v>-5245436.200300001</v>
+        <v>2.566000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,33 +4708,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C114" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D114" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E114" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F114" t="n">
-        <v>53922.2343</v>
+        <v>69582</v>
       </c>
       <c r="G114" t="n">
-        <v>-5245436.200300001</v>
+        <v>2.571000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,33 +4750,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C115" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D115" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E115" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F115" t="n">
-        <v>84766.89720000001</v>
+        <v>671588.8382</v>
       </c>
       <c r="G115" t="n">
-        <v>-5245436.200300001</v>
+        <v>2.576500000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,33 +4792,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C116" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D116" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E116" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>59991.2849</v>
       </c>
       <c r="G116" t="n">
-        <v>-5245436.200300001</v>
+        <v>2.579500000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,33 +4834,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="C117" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="D117" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="E117" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="F117" t="n">
-        <v>13243.0711</v>
+        <v>114503.8167</v>
       </c>
       <c r="G117" t="n">
-        <v>-5258679.271400001</v>
+        <v>2.583000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,33 +4876,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="C118" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="D118" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="E118" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="F118" t="n">
-        <v>10131.457</v>
+        <v>37878.7878</v>
       </c>
       <c r="G118" t="n">
-        <v>-5258679.271400001</v>
+        <v>2.589000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,33 +4918,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="C119" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="D119" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="E119" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="F119" t="n">
-        <v>209684.5029</v>
+        <v>56390.9774</v>
       </c>
       <c r="G119" t="n">
-        <v>-5258679.271400001</v>
+        <v>2.594500000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,33 +4960,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="C120" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="D120" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="E120" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F120" t="n">
-        <v>215450.6152</v>
+        <v>114922.8742</v>
       </c>
       <c r="G120" t="n">
-        <v>-5474129.886600001</v>
+        <v>2.597000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,33 +5002,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="C121" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="D121" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="E121" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="F121" t="n">
-        <v>20000</v>
+        <v>19157.0881</v>
       </c>
       <c r="G121" t="n">
-        <v>-5474129.886600001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,33 +5044,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="C122" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="D122" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="E122" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F122" t="n">
-        <v>3073.3571</v>
+        <v>162631.2594</v>
       </c>
       <c r="G122" t="n">
-        <v>-5474129.886600001</v>
+        <v>2.602500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,33 +5086,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="C123" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="D123" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="E123" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="F123" t="n">
-        <v>186840.6058</v>
+        <v>80769.2307</v>
       </c>
       <c r="G123" t="n">
-        <v>-5660970.492400001</v>
+        <v>2.603500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,33 +5128,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="C124" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="D124" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="E124" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="F124" t="n">
-        <v>18827.5703</v>
+        <v>22988.5057</v>
       </c>
       <c r="G124" t="n">
-        <v>-5660970.492400001</v>
+        <v>2.605000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,33 +5170,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="C125" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="D125" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="E125" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="F125" t="n">
-        <v>550191.0251</v>
+        <v>15094.3396</v>
       </c>
       <c r="G125" t="n">
-        <v>-5660970.492400001</v>
+        <v>2.607000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +5212,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="C126" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="D126" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="E126" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="F126" t="n">
-        <v>34266.8198</v>
+        <v>3787.8787</v>
       </c>
       <c r="G126" t="n">
-        <v>-5660970.492400001</v>
+        <v>2.608000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,72 +5254,82 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="C127" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="D127" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="E127" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="F127" t="n">
-        <v>2540.3968</v>
+        <v>3398521.2855</v>
       </c>
       <c r="G127" t="n">
-        <v>-5660970.492400001</v>
+        <v>2.609000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>2.52</v>
       </c>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="C128" t="n">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="D128" t="n">
-        <v>2.51</v>
+        <v>2.66</v>
       </c>
       <c r="E128" t="n">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="F128" t="n">
-        <v>7723.5457</v>
+        <v>1546918.1278</v>
       </c>
       <c r="G128" t="n">
-        <v>-5668694.0381</v>
+        <v>2.611000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4876,130 +5343,127 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="C129" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="D129" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="E129" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="F129" t="n">
-        <v>31850</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>-5700544.0381</v>
+        <v>2.610500000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.51</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>2.52</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="C130" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="D130" t="n">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="E130" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="F130" t="n">
-        <v>326893.1664</v>
+        <v>37593.9849</v>
       </c>
       <c r="G130" t="n">
-        <v>-6027437.204500001</v>
+        <v>2.611500000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
         <v>2.52</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="C131" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="D131" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="E131" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="F131" t="n">
-        <v>390.625</v>
+        <v>18726.5917</v>
       </c>
       <c r="G131" t="n">
-        <v>-6027046.579500001</v>
+        <v>2.613000000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>2.48</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
         <v>2.52</v>
       </c>
@@ -5011,28 +5475,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="C132" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="D132" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="E132" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="F132" t="n">
-        <v>656.8627</v>
+        <v>18796.9924</v>
       </c>
       <c r="G132" t="n">
-        <v>-6027703.442200001</v>
+        <v>2.615000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5052,28 +5517,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="C133" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="D133" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="E133" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="F133" t="n">
-        <v>163792.5321</v>
+        <v>3773.5849</v>
       </c>
       <c r="G133" t="n">
-        <v>-6027703.442200001</v>
+        <v>2.618500000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5093,28 +5559,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="C134" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D134" t="n">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="E134" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="F134" t="n">
-        <v>318947.6639</v>
+        <v>57037.9849</v>
       </c>
       <c r="G134" t="n">
-        <v>-6027703.442200001</v>
+        <v>2.622500000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5134,28 +5601,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="C135" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="D135" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="E135" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="F135" t="n">
-        <v>21000</v>
+        <v>38453.1835</v>
       </c>
       <c r="G135" t="n">
-        <v>-6006703.442200001</v>
+        <v>2.624000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5175,28 +5643,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="C136" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="D136" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="E136" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="F136" t="n">
-        <v>1174217.53</v>
+        <v>114029.0368</v>
       </c>
       <c r="G136" t="n">
-        <v>-7180920.972200002</v>
+        <v>2.625500000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5216,28 +5685,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="C137" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="D137" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="E137" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="F137" t="n">
-        <v>143952.498</v>
+        <v>8841</v>
       </c>
       <c r="G137" t="n">
-        <v>-7324873.470200001</v>
+        <v>2.625500000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5257,28 +5727,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="C138" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="D138" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="E138" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="F138" t="n">
-        <v>40000</v>
+        <v>37878.7878</v>
       </c>
       <c r="G138" t="n">
-        <v>-7284873.470200001</v>
+        <v>2.623000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5298,28 +5769,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="C139" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="D139" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="E139" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="F139" t="n">
-        <v>10000</v>
+        <v>90861.1683</v>
       </c>
       <c r="G139" t="n">
-        <v>-7284873.470200001</v>
+        <v>2.620000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5339,28 +5811,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="C140" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="D140" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="E140" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
       <c r="F140" t="n">
-        <v>119124.216</v>
+        <v>84986.0802</v>
       </c>
       <c r="G140" t="n">
-        <v>-7284873.470200001</v>
+        <v>2.619500000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5380,28 +5853,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="C141" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D141" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="E141" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="F141" t="n">
-        <v>18618.9664</v>
+        <v>19157.0881</v>
       </c>
       <c r="G141" t="n">
-        <v>-7266254.503800001</v>
+        <v>2.620000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5421,28 +5895,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="C142" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D142" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="E142" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="F142" t="n">
-        <v>603192.745</v>
+        <v>4631.2643</v>
       </c>
       <c r="G142" t="n">
-        <v>-7266254.503800001</v>
+        <v>2.621000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5462,38 +5937,37 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="C143" t="n">
         <v>2.57</v>
       </c>
       <c r="D143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E143" t="n">
         <v>2.57</v>
       </c>
-      <c r="E143" t="n">
-        <v>2.53</v>
-      </c>
       <c r="F143" t="n">
-        <v>643230.785</v>
+        <v>39466.3212</v>
       </c>
       <c r="G143" t="n">
-        <v>-6623023.718800001</v>
+        <v>2.622000000000001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
         <v>2.52</v>
       </c>
@@ -5505,28 +5979,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="C144" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D144" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E144" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F144" t="n">
-        <v>164528.6174</v>
+        <v>5720.2168</v>
       </c>
       <c r="G144" t="n">
-        <v>-6787552.336200001</v>
+        <v>2.620500000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5546,28 +6021,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C145" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D145" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E145" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F145" t="n">
-        <v>29569</v>
+        <v>19305.0193</v>
       </c>
       <c r="G145" t="n">
-        <v>-6757983.336200001</v>
+        <v>2.618000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5587,28 +6063,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E146" t="n">
         <v>2.59</v>
       </c>
-      <c r="D146" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.57</v>
-      </c>
       <c r="F146" t="n">
-        <v>639003.3281</v>
+        <v>533106.5606</v>
       </c>
       <c r="G146" t="n">
-        <v>-6118980.008100001</v>
+        <v>2.615500000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5628,28 +6105,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="C147" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D147" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="E147" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F147" t="n">
-        <v>523914.4906</v>
+        <v>243913.2932</v>
       </c>
       <c r="G147" t="n">
-        <v>-5595065.517500001</v>
+        <v>2.617</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5669,28 +6147,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="C148" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D148" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="E148" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F148" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="G148" t="n">
-        <v>-5595065.517500001</v>
+        <v>2.615000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5710,28 +6189,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C149" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D149" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E149" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="F149" t="n">
-        <v>10000</v>
+        <v>12275</v>
       </c>
       <c r="G149" t="n">
-        <v>-5605065.517500001</v>
+        <v>2.6155</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5751,6 +6231,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5760,19 +6241,19 @@
         <v>2.61</v>
       </c>
       <c r="C150" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D150" t="n">
         <v>2.62</v>
       </c>
       <c r="E150" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F150" t="n">
-        <v>26145</v>
+        <v>22064</v>
       </c>
       <c r="G150" t="n">
-        <v>-5578920.517500001</v>
+        <v>2.613500000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5792,28 +6273,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C151" t="n">
         <v>2.62</v>
       </c>
-      <c r="C151" t="n">
-        <v>2.64</v>
-      </c>
       <c r="D151" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="E151" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F151" t="n">
-        <v>120338.1925</v>
+        <v>39050</v>
       </c>
       <c r="G151" t="n">
-        <v>-5458582.325000001</v>
+        <v>2.6115</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5833,28 +6315,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C152" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="D152" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="E152" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F152" t="n">
-        <v>119999.1064</v>
+        <v>105520.8103</v>
       </c>
       <c r="G152" t="n">
-        <v>-5338583.218600001</v>
+        <v>2.61</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,28 +6357,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="C153" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="D153" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E153" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F153" t="n">
-        <v>110886.3087</v>
+        <v>1170.1901</v>
       </c>
       <c r="G153" t="n">
-        <v>-5449469.527300001</v>
+        <v>2.609000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5915,28 +6399,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="C154" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="D154" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="E154" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="F154" t="n">
-        <v>2113622.1453</v>
+        <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>-3335847.382000001</v>
+        <v>2.608500000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5956,28 +6441,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="C155" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="D155" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E155" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="F155" t="n">
-        <v>100497.5</v>
+        <v>105051.1915</v>
       </c>
       <c r="G155" t="n">
-        <v>-3436344.882000001</v>
+        <v>2.609500000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5997,28 +6483,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="C156" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="D156" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="E156" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="F156" t="n">
-        <v>69582</v>
+        <v>18867.9245</v>
       </c>
       <c r="G156" t="n">
-        <v>-3436344.882000001</v>
+        <v>2.611500000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6038,28 +6525,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="C157" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="D157" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="E157" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="F157" t="n">
-        <v>671588.8382</v>
+        <v>56440.7547</v>
       </c>
       <c r="G157" t="n">
-        <v>-3436344.882000001</v>
+        <v>2.614000000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6079,28 +6567,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="C158" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="D158" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="E158" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F158" t="n">
-        <v>59991.2849</v>
+        <v>72164.7978</v>
       </c>
       <c r="G158" t="n">
-        <v>-3436344.882000001</v>
+        <v>2.615000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6120,28 +6609,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C159" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="D159" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="E159" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F159" t="n">
-        <v>114503.8167</v>
+        <v>46415.0943</v>
       </c>
       <c r="G159" t="n">
-        <v>-3321841.065300001</v>
+        <v>2.617500000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6161,6 +6651,7 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6170,19 +6661,19 @@
         <v>2.65</v>
       </c>
       <c r="C160" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="D160" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="E160" t="n">
         <v>2.65</v>
       </c>
       <c r="F160" t="n">
-        <v>37878.7878</v>
+        <v>52492.2556</v>
       </c>
       <c r="G160" t="n">
-        <v>-3283962.277500001</v>
+        <v>2.620500000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6202,28 +6693,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C161" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="D161" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="E161" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F161" t="n">
-        <v>56390.9774</v>
+        <v>519498.8317</v>
       </c>
       <c r="G161" t="n">
-        <v>-3227571.300100001</v>
+        <v>2.621</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6243,34 +6735,35 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="C162" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="D162" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="E162" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="F162" t="n">
-        <v>114922.8742</v>
+        <v>3655.2553</v>
       </c>
       <c r="G162" t="n">
-        <v>-3342494.174300001</v>
+        <v>2.6245</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
@@ -6278,403 +6771,359 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>1</v>
-      </c>
+        <v>1.046587301587302</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="C163" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="D163" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="E163" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="F163" t="n">
-        <v>19157.0881</v>
+        <v>46315.7894</v>
       </c>
       <c r="G163" t="n">
-        <v>-3323337.086200001</v>
+        <v>2.627</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="C164" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="D164" t="n">
-        <v>2.61</v>
+        <v>2.68</v>
       </c>
       <c r="E164" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="F164" t="n">
-        <v>162631.2594</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>-3485968.345600001</v>
+        <v>2.6325</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="C165" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="D165" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="E165" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="F165" t="n">
-        <v>80769.2307</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-3405199.114900001</v>
+        <v>2.637</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="C166" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="D166" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="E166" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F166" t="n">
-        <v>22988.5057</v>
+        <v>51160</v>
       </c>
       <c r="G166" t="n">
-        <v>-3382210.609200001</v>
+        <v>2.638</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="C167" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D167" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="E167" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="F167" t="n">
-        <v>15094.3396</v>
+        <v>246517.3396</v>
       </c>
       <c r="G167" t="n">
-        <v>-3367116.269600001</v>
+        <v>2.6375</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="C168" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D168" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="E168" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="F168" t="n">
-        <v>3787.8787</v>
+        <v>42381</v>
       </c>
       <c r="G168" t="n">
-        <v>-3367116.269600001</v>
+        <v>2.6375</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C169" t="n">
         <v>2.64</v>
       </c>
       <c r="D169" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E169" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F169" t="n">
-        <v>3398521.2855</v>
+        <v>5064</v>
       </c>
       <c r="G169" t="n">
-        <v>-3367116.269600001</v>
+        <v>2.6375</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C170" t="n">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="D170" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E170" t="n">
         <v>2.59</v>
       </c>
       <c r="F170" t="n">
-        <v>1546918.1278</v>
+        <v>783618.2692</v>
       </c>
       <c r="G170" t="n">
-        <v>-4914034.397400001</v>
+        <v>2.6375</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C171" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="D171" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="E171" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F171" t="n">
-        <v>1000</v>
+        <v>5624</v>
       </c>
       <c r="G171" t="n">
-        <v>-4913034.397400001</v>
+        <v>2.6385</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C172" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="D172" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E172" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F172" t="n">
-        <v>37593.9849</v>
+        <v>14376</v>
       </c>
       <c r="G172" t="n">
-        <v>-4875440.412500001</v>
+        <v>2.638</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6683,39 +7132,34 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="C173" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="D173" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E173" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="F173" t="n">
-        <v>18726.5917</v>
+        <v>41568.4087</v>
       </c>
       <c r="G173" t="n">
-        <v>-4875440.412500001</v>
+        <v>2.6365</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6724,39 +7168,34 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="C174" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="D174" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E174" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="F174" t="n">
-        <v>18796.9924</v>
+        <v>456926.0466</v>
       </c>
       <c r="G174" t="n">
-        <v>-4875440.412500001</v>
+        <v>2.634</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6765,39 +7204,34 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="C175" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="D175" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E175" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="F175" t="n">
-        <v>3773.5849</v>
+        <v>11363.6363</v>
       </c>
       <c r="G175" t="n">
-        <v>-4875440.412500001</v>
+        <v>2.6345</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6806,39 +7240,34 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C176" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="D176" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E176" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F176" t="n">
-        <v>57037.9849</v>
+        <v>21.9725</v>
       </c>
       <c r="G176" t="n">
-        <v>-4932478.397400001</v>
+        <v>2.634</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6847,39 +7276,34 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="C177" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="D177" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="E177" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F177" t="n">
-        <v>38453.1835</v>
+        <v>65208.9389</v>
       </c>
       <c r="G177" t="n">
-        <v>-4894025.213900001</v>
+        <v>2.6315</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6888,39 +7312,34 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="C178" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="D178" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="E178" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="F178" t="n">
-        <v>114029.0368</v>
+        <v>151.8715</v>
       </c>
       <c r="G178" t="n">
-        <v>-5008054.250700001</v>
+        <v>2.630500000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6929,39 +7348,34 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="C179" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="D179" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="E179" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F179" t="n">
-        <v>8841</v>
+        <v>35115</v>
       </c>
       <c r="G179" t="n">
-        <v>-4999213.250700001</v>
+        <v>2.629500000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6970,39 +7384,34 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="C180" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D180" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="E180" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F180" t="n">
-        <v>37878.7878</v>
+        <v>8770</v>
       </c>
       <c r="G180" t="n">
-        <v>-4961334.462900001</v>
+        <v>2.628000000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7011,39 +7420,34 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="C181" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="D181" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="E181" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="F181" t="n">
-        <v>90861.1683</v>
+        <v>875564.7424</v>
       </c>
       <c r="G181" t="n">
-        <v>-5052195.631200001</v>
+        <v>2.629</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7052,39 +7456,34 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="C182" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E182" t="n">
         <v>2.6</v>
       </c>
-      <c r="D182" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2.58</v>
-      </c>
       <c r="F182" t="n">
-        <v>84986.0802</v>
+        <v>321284.5971</v>
       </c>
       <c r="G182" t="n">
-        <v>-4967209.551000001</v>
+        <v>2.626500000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7093,39 +7492,34 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C183" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="D183" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="E183" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F183" t="n">
-        <v>19157.0881</v>
+        <v>1349.3181</v>
       </c>
       <c r="G183" t="n">
-        <v>-4948052.462900001</v>
+        <v>2.626000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7134,39 +7528,34 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="D184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="E184" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="F184" t="n">
-        <v>4631.2643</v>
+        <v>51206</v>
       </c>
       <c r="G184" t="n">
-        <v>-4948052.462900001</v>
+        <v>2.623500000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7175,1625 +7564,12 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F185" t="n">
-        <v>39466.3212</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-4987518.784100001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5720.2168</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-4987518.784100001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F187" t="n">
-        <v>19305.0193</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-4968213.764800001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F188" t="n">
-        <v>533106.5606</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-4435107.204200001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E189" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F189" t="n">
-        <v>243913.2932</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-4191193.911000001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F190" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-4191193.911000001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F191" t="n">
-        <v>12275</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-4178918.911000001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F192" t="n">
-        <v>22064</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-4200982.911000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F193" t="n">
-        <v>39050</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-4161932.911000001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F194" t="n">
-        <v>105520.8103</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-4161932.911000001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1170.1901</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4160762.720900001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-4160752.720900001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F197" t="n">
-        <v>105051.1915</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-4265803.912400002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F198" t="n">
-        <v>18867.9245</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-4246935.987900002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F199" t="n">
-        <v>56440.7547</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-4246935.987900002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F200" t="n">
-        <v>72164.7978</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-4319100.785700002</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F201" t="n">
-        <v>46415.0943</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-4272685.691400002</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F202" t="n">
-        <v>52492.2556</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4220193.435800002</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F203" t="n">
-        <v>519498.8317</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-4220193.435800002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3655.2553</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-4223848.691100002</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F205" t="n">
-        <v>46315.7894</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-4177532.901700002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F206" t="n">
-        <v>10</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-4177522.901700002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F207" t="n">
-        <v>10</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-4177522.901700002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1.058492063492064</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F208" t="n">
-        <v>51160</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4228682.901700002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>246517.3396</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-4475200.241300002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D210" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F210" t="n">
-        <v>42381</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-4475200.241300002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D211" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E211" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F211" t="n">
-        <v>5064</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-4470136.241300002</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D212" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E212" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F212" t="n">
-        <v>783618.2692</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-4470136.241300002</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D213" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E213" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5624</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-4475760.241300002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D214" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E214" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F214" t="n">
-        <v>14376</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-4490136.241300002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E215" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F215" t="n">
-        <v>41568.4087</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-4490136.241300002</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D216" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E216" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F216" t="n">
-        <v>456926.0466</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-4490136.241300002</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D217" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E217" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F217" t="n">
-        <v>11363.6363</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-4478772.605000001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D218" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E218" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F218" t="n">
-        <v>21.9725</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-4478794.577500002</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D219" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F219" t="n">
-        <v>65208.9389</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-4413585.638600001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D220" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E220" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F220" t="n">
-        <v>151.8715</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-4413737.510100001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D221" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E221" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F221" t="n">
-        <v>35115</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-4378622.510100001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E222" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F222" t="n">
-        <v>8770</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-4387392.510100001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D223" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E223" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F223" t="n">
-        <v>875564.7424</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-3511827.767700002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D224" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E224" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F224" t="n">
-        <v>321284.5971</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-3190543.170600002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E225" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1349.3181</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-3190543.170600002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F226" t="n">
-        <v>51206</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-3241749.170600002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N255"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,19 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1645,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1684,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1723,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1760,23 @@
         <v>-3681522.9571</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>2.53</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1803,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1840,23 @@
         <v>-3702408.2326</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1883,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1922,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1961,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2000,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2039,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2078,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2117,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2156,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2195,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2234,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2273,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2312,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2351,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2390,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2429,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2468,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2507,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2546,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2585,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2624,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2663,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2702,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2739,21 @@
         <v>-4057279.467900001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.026746031746032</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2778,15 @@
         <v>-4057079.467900001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2811,15 @@
         <v>-4057079.467900001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2844,15 @@
         <v>-4057079.467900001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2879,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2910,15 @@
         <v>-4026545.116800001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2943,15 @@
         <v>-4026545.116800001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2976,15 @@
         <v>-4028124.491700001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3011,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +3042,15 @@
         <v>-3997308.615600001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3077,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3108,15 @@
         <v>-3998298.615600001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3143,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3174,15 @@
         <v>-3998298.615600001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3209,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3242,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3275,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3308,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3341,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3374,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3407,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3440,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3473,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3506,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3539,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3572,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3605,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3638,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3671,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3704,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3737,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3770,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3803,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3836,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3869,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3902,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3935,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3968,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4001,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4034,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4067,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4100,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4133,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4166,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4199,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4232,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4265,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4298,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4331,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4364,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4397,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4430,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4463,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4496,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4529,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4562,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4595,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4628,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4661,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4694,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4727,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4760,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4793,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4826,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4859,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4892,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4925,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4956,19 @@
         <v>-5121902.845800001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>2.53</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.53</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4995,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5034,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5073,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5106,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5139,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5172,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5205,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5238,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5271,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5304,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5337,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5370,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5403,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5436,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5467,21 @@
         <v>-5258679.271400001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5506,21 @@
         <v>-5474129.886600001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5545,21 @@
         <v>-5474129.886600001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5586,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5623,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,22 +5658,21 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5932,26 +5697,21 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5976,26 +5736,21 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K155" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6020,26 +5775,21 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K156" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6064,26 +5814,21 @@
         <v>-5668694.0381</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K157" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6108,26 +5853,21 @@
         <v>-5700544.0381</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
         <v>2.51</v>
       </c>
-      <c r="K158" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6152,26 +5892,21 @@
         <v>-6027437.204500001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
         <v>2.5</v>
       </c>
-      <c r="K159" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6196,26 +5931,21 @@
         <v>-6027046.579500001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
         <v>2.48</v>
       </c>
-      <c r="K160" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6240,26 +5970,21 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K161" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>2.56</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6286,22 +6011,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6326,26 +6046,21 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K163" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>2.55</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6372,22 +6087,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6412,26 +6122,19 @@
         <v>-7180920.972200002</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K165" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6456,26 +6159,21 @@
         <v>-7324873.470200001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
         <v>2.54</v>
       </c>
-      <c r="K166" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6500,26 +6198,19 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6544,26 +6235,19 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K168" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6588,26 +6272,21 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
         <v>2.53</v>
       </c>
-      <c r="K169" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6632,26 +6311,21 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
         <v>2.53</v>
       </c>
-      <c r="K170" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6676,26 +6350,21 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K171" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>2.55</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6720,26 +6389,21 @@
         <v>-6623023.718800001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K172" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>2.55</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6764,26 +6428,21 @@
         <v>-6787552.336200001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
         <v>2.57</v>
       </c>
-      <c r="K173" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6808,26 +6467,19 @@
         <v>-6757983.336200001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K174" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6852,24 +6504,21 @@
         <v>-6118980.008100001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6896,22 +6545,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6938,22 +6582,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6978,24 +6617,17 @@
         <v>-5605065.517500001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7020,24 +6652,15 @@
         <v>-5578920.517500001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7064,22 +6687,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7106,22 +6720,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7146,24 +6751,15 @@
         <v>-5449469.527300001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7190,22 +6786,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7232,22 +6819,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7274,22 +6852,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7316,22 +6885,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7358,22 +6918,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7400,22 +6951,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7440,24 +6982,15 @@
         <v>-3283962.277500001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7484,22 +7017,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7524,24 +7048,15 @@
         <v>-3342494.174300001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7568,22 +7083,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7608,24 +7114,15 @@
         <v>-3485968.345600001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7652,22 +7149,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7694,22 +7182,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7736,22 +7215,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7776,24 +7246,15 @@
         <v>-3367116.269600001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7818,24 +7279,15 @@
         <v>-3367116.269600001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1.042619047619048</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7860,18 +7312,15 @@
         <v>-4914034.397400001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7896,18 +7345,15 @@
         <v>-4913034.397400001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7932,18 +7378,15 @@
         <v>-4875440.412500001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7970,16 +7413,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8006,16 +7446,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8042,16 +7479,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8078,16 +7512,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8114,16 +7545,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8150,16 +7578,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8186,16 +7611,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8222,16 +7644,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8258,16 +7677,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8294,16 +7710,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8330,16 +7743,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8366,16 +7776,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8402,16 +7809,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8438,16 +7842,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8474,16 +7875,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8510,16 +7908,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8546,16 +7941,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8582,16 +7974,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8616,18 +8005,15 @@
         <v>-4178918.911000001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8654,16 +8040,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8690,16 +8073,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8726,16 +8106,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8762,16 +8139,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8798,16 +8172,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8834,16 +8205,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8870,16 +8238,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8906,16 +8271,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8942,16 +8304,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8978,16 +8337,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9014,16 +8370,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9050,16 +8403,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9086,16 +8436,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9122,16 +8469,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9158,16 +8502,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9194,16 +8535,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9228,18 +8566,15 @@
         <v>-4228682.901700002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9264,18 +8599,15 @@
         <v>-4475200.241300002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9302,16 +8634,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9338,16 +8667,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9374,16 +8700,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9410,16 +8733,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9446,16 +8766,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9480,18 +8797,15 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9516,18 +8830,15 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9552,18 +8863,15 @@
         <v>-4478772.605000001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9590,16 +8898,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9626,16 +8931,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9662,16 +8964,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9698,16 +8997,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9734,16 +9030,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9770,16 +9063,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9804,18 +9094,15 @@
         <v>-3190543.170600002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9840,18 +9127,15 @@
         <v>-3190543.170600002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9876,20 +9160,17 @@
         <v>-3241749.170600002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,14 +1606,10 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1646,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1685,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,19 +1738,11 @@
         <v>-3681522.9571</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1804,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1840,19 +1804,11 @@
         <v>-3702408.2326</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1884,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1923,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1962,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2001,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2040,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2079,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2196,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2274,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2352,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2391,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2430,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2469,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2739,19 +2563,13 @@
         <v>-4057279.467900001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.026746031746032</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2778,7 +2596,7 @@
         <v>-4057079.467900001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2811,7 +2629,7 @@
         <v>-4057079.467900001</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2844,7 +2662,7 @@
         <v>-4057079.467900001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2910,7 +2728,7 @@
         <v>-4026545.116800001</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2943,7 +2761,7 @@
         <v>-4026545.116800001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2976,7 +2794,7 @@
         <v>-4028124.491700001</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3042,7 +2860,7 @@
         <v>-3997308.615600001</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3108,7 +2926,7 @@
         <v>-3998298.615600001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3174,7 +2992,7 @@
         <v>-3998298.615600001</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4956,14 +4774,10 @@
         <v>-5121902.845800001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4996,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5035,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5467,247 +5269,221 @@
         <v>-5258679.271400001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F149" t="n">
+        <v>215450.6152</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-5474129.886600001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-5474129.886600001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3073.3571</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-5474129.886600001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F152" t="n">
+        <v>186840.6058</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5660970.492400001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18827.5703</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5660970.492400001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F154" t="n">
+        <v>550191.0251</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5660970.492400001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F149" t="n">
-        <v>215450.6152</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-5474129.886600001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F150" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-5474129.886600001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E151" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3073.3571</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-5474129.886600001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F152" t="n">
-        <v>186840.6058</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-5660970.492400001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F153" t="n">
-        <v>18827.5703</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-5660970.492400001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F154" t="n">
-        <v>550191.0251</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-5660970.492400001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5736,12 +5512,14 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>2.52</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,12 +5553,14 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>2.52</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,12 +5594,14 @@
         <v>-5668694.0381</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>2.52</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,12 +5635,14 @@
         <v>-5700544.0381</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>2.51</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,12 +5676,14 @@
         <v>-6027437.204500001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>2.5</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,12 +5717,14 @@
         <v>-6027046.579500001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>2.48</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,12 +5758,12 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6012,7 +5800,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,12 +5836,12 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,7 +5878,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,7 +5917,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,12 +5953,12 @@
         <v>-7324873.470200001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6201,7 +5995,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6238,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6272,12 +6070,14 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>2.53</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,12 +6111,14 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>2.53</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,12 +6152,14 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>2.55</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,12 +6193,14 @@
         <v>-6623023.718800001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>2.55</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,12 +6234,14 @@
         <v>-6787552.336200001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>2.57</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,10 +6275,14 @@
         <v>-6757983.336200001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,12 +6316,14 @@
         <v>-6118980.008100001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>2.57</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6543,10 +6357,14 @@
         <v>-5595065.517500001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6583,7 +6401,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,1665 +6437,1969 @@
         <v>-5605065.517500001</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F179" t="n">
+        <v>26145</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5578920.517500001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F180" t="n">
+        <v>120338.1925</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5458582.325000001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F181" t="n">
+        <v>119999.1064</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-5338583.218600001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F182" t="n">
+        <v>110886.3087</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-5449469.527300001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2113622.1453</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-3335847.382000001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100497.5</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-3436344.882000001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F185" t="n">
+        <v>69582</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-3436344.882000001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F186" t="n">
+        <v>671588.8382</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-3436344.882000001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F187" t="n">
+        <v>59991.2849</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-3436344.882000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>114503.8167</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-3321841.065300001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F189" t="n">
+        <v>37878.7878</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-3283962.277500001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F190" t="n">
+        <v>56390.9774</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-3227571.300100001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F191" t="n">
+        <v>114922.8742</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-3342494.174300001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19157.0881</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-3323337.086200001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F193" t="n">
+        <v>162631.2594</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-3485968.345600001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F194" t="n">
+        <v>80769.2307</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-3405199.114900001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22988.5057</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-3382210.609200001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F196" t="n">
+        <v>15094.3396</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-3367116.269600001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3787.8787</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-3367116.269600001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3398521.2855</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-3367116.269600001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1546918.1278</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-4914034.397400001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-4913034.397400001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F201" t="n">
+        <v>37593.9849</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-4875440.412500001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F202" t="n">
+        <v>18726.5917</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-4875440.412500001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F203" t="n">
+        <v>18796.9924</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-4875440.412500001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3773.5849</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-4875440.412500001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F205" t="n">
+        <v>57037.9849</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-4932478.397400001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F206" t="n">
+        <v>38453.1835</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-4894025.213900001</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F207" t="n">
+        <v>114029.0368</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-5008054.250700001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8841</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-4999213.250700001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>37878.7878</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-4961334.462900001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F210" t="n">
+        <v>90861.1683</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-5052195.631200001</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F211" t="n">
+        <v>84986.0802</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-4967209.551000001</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19157.0881</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-4948052.462900001</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4631.2643</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-4948052.462900001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F214" t="n">
+        <v>39466.3212</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-4987518.784100001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5720.2168</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-4987518.784100001</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F216" t="n">
+        <v>19305.0193</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-4968213.764800001</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F217" t="n">
+        <v>533106.5606</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-4435107.204200001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F218" t="n">
+        <v>243913.2932</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-4191193.911000001</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F219" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-4191193.911000001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F220" t="n">
+        <v>12275</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-4178918.911000001</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22064</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-4200982.911000001</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F222" t="n">
+        <v>39050</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-4161932.911000001</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F223" t="n">
+        <v>105520.8103</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-4161932.911000001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1170.1901</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-4160762.720900001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-4160752.720900001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F226" t="n">
+        <v>105051.1915</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-4265803.912400002</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F227" t="n">
+        <v>18867.9245</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-4246935.987900002</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F228" t="n">
+        <v>56440.7547</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-4246935.987900002</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D179" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E179" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F179" t="n">
-        <v>26145</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-5578920.517500001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>3</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D180" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E180" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F180" t="n">
-        <v>120338.1925</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-5458582.325000001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F181" t="n">
-        <v>119999.1064</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-5338583.218600001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F182" t="n">
-        <v>110886.3087</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-5449469.527300001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2113622.1453</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-3335847.382000001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E184" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F184" t="n">
-        <v>100497.5</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F185" t="n">
-        <v>69582</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F186" t="n">
-        <v>671588.8382</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F187" t="n">
-        <v>59991.2849</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F188" t="n">
-        <v>114503.8167</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-3321841.065300001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E189" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F189" t="n">
-        <v>37878.7878</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-3283962.277500001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F190" t="n">
-        <v>56390.9774</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-3227571.300100001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F191" t="n">
-        <v>114922.8742</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-3342494.174300001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F192" t="n">
-        <v>19157.0881</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-3323337.086200001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F193" t="n">
-        <v>162631.2594</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-3485968.345600001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F194" t="n">
-        <v>80769.2307</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-3405199.114900001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F195" t="n">
-        <v>22988.5057</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-3382210.609200001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F196" t="n">
-        <v>15094.3396</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-3367116.269600001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3787.8787</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-3367116.269600001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3398521.2855</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-3367116.269600001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>3</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1546918.1278</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-4914034.397400001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-4913034.397400001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F201" t="n">
-        <v>37593.9849</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F202" t="n">
-        <v>18726.5917</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F203" t="n">
-        <v>18796.9924</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3773.5849</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F205" t="n">
-        <v>57037.9849</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-4932478.397400001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F206" t="n">
-        <v>38453.1835</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-4894025.213900001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F207" t="n">
-        <v>114029.0368</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-5008054.250700001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F208" t="n">
-        <v>8841</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4999213.250700001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>37878.7878</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-4961334.462900001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D210" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F210" t="n">
-        <v>90861.1683</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-5052195.631200001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D211" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E211" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F211" t="n">
-        <v>84986.0802</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-4967209.551000001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D212" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E212" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F212" t="n">
-        <v>19157.0881</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-4948052.462900001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D213" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E213" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F213" t="n">
-        <v>4631.2643</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-4948052.462900001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D214" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E214" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F214" t="n">
-        <v>39466.3212</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-4987518.784100001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E215" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5720.2168</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-4987518.784100001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D216" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E216" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F216" t="n">
-        <v>19305.0193</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-4968213.764800001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D217" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E217" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F217" t="n">
-        <v>533106.5606</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-4435107.204200001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D218" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E218" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F218" t="n">
-        <v>243913.2932</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-4191193.911000001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D219" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F219" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-4191193.911000001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D220" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E220" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F220" t="n">
-        <v>12275</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-4178918.911000001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D221" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E221" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F221" t="n">
-        <v>22064</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-4200982.911000001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E222" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F222" t="n">
-        <v>39050</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-4161932.911000001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D223" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E223" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F223" t="n">
-        <v>105520.8103</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-4161932.911000001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D224" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E224" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1170.1901</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-4160762.720900001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E225" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-4160752.720900001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E226" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F226" t="n">
-        <v>105051.1915</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-4265803.912400002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C227" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D227" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E227" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F227" t="n">
-        <v>18867.9245</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-4246935.987900002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C228" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D228" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E228" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F228" t="n">
-        <v>56440.7547</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-4246935.987900002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>1</v>
+        <v>1.046587301587302</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
@@ -8302,7 +8426,7 @@
         <v>-4319100.785700002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8500,7 +8624,7 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8533,7 +8657,7 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8566,7 +8690,7 @@
         <v>-4228682.901700002</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8599,7 +8723,7 @@
         <v>-4475200.241300002</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8632,7 +8756,7 @@
         <v>-4475200.241300002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8665,7 +8789,7 @@
         <v>-4470136.241300002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8698,7 +8822,7 @@
         <v>-4470136.241300002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8731,7 +8855,7 @@
         <v>-4475760.241300002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8764,7 +8888,7 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8797,7 +8921,7 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8830,7 +8954,7 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8863,7 +8987,7 @@
         <v>-4478772.605000001</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8896,7 +9020,7 @@
         <v>-4478794.577500002</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9094,7 +9218,7 @@
         <v>-3190543.170600002</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9127,7 +9251,7 @@
         <v>-3190543.170600002</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9160,7 +9284,7 @@
         <v>-3241749.170600002</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9171,6 +9295,6 @@
       <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3684896.695800001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3494782.627400001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3525768.603200001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3671553.737000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3599963.159400001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3599863.159400001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3663580.489200001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3663480.489200001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4177864.780700001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4511506.338700001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-4473192.162500001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4377406.721900001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4725797.752500001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5434,14 +5434,10 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5471,19 +5467,11 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J154" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5512,19 +5500,11 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,19 +5533,11 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +5574,7 @@
       <c r="J157" t="n">
         <v>2.52</v>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5645,7 +5613,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5686,7 +5654,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5992,9 +5960,11 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.46</v>
+      </c>
       <c r="J167" t="n">
         <v>2.52</v>
       </c>
@@ -6070,11 +6040,9 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>2.52</v>
       </c>
@@ -6111,11 +6079,9 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>2.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>2.52</v>
       </c>
@@ -6152,11 +6118,9 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>2.52</v>
       </c>
@@ -6193,11 +6157,9 @@
         <v>-6623023.718800001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>2.52</v>
       </c>
@@ -6234,11 +6196,9 @@
         <v>-6787552.336200001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>2.52</v>
       </c>
@@ -6275,11 +6235,9 @@
         <v>-6757983.336200001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>2.52</v>
       </c>
@@ -6316,11 +6274,9 @@
         <v>-6118980.008100001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>2.52</v>
       </c>
@@ -6357,11 +6313,9 @@
         <v>-5595065.517500001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>2.52</v>
       </c>
@@ -8387,7 +8341,7 @@
         <v>-4246935.987900002</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
@@ -8395,11 +8349,11 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.046587301587302</v>
+        <v>1</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
@@ -8426,11 +8380,17 @@
         <v>-4319100.785700002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8462,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8495,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8528,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8561,8 +8539,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8594,8 +8578,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +8614,17 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8657,11 +8653,17 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8690,11 +8692,17 @@
         <v>-4228682.901700002</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8723,11 +8731,17 @@
         <v>-4475200.241300002</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8756,11 +8770,17 @@
         <v>-4475200.241300002</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8789,11 +8809,17 @@
         <v>-4470136.241300002</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8822,11 +8848,17 @@
         <v>-4470136.241300002</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +8887,17 @@
         <v>-4475760.241300002</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8888,11 +8926,17 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8924,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8954,11 +9004,17 @@
         <v>-4490136.241300002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8987,11 +9043,17 @@
         <v>-4478772.605000001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9020,11 +9082,17 @@
         <v>-4478794.577500002</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9056,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9089,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9122,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9155,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9188,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9221,8 +9319,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9254,8 +9358,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9287,14 +9397,20 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
       <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -451,7 +451,7 @@
         <v>-3684896.695800001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3494782.627400001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3525768.603200001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3671553.737000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3599963.159400001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3599863.159400001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3663580.489200001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3663480.489200001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4177864.780700001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4511506.338700001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-4473192.162500001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4377406.721900001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4725797.752500001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5500,10 +5500,14 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.52</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5533,11 +5537,19 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5574,7 +5586,11 @@
       <c r="J157" t="n">
         <v>2.52</v>
       </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5609,13 +5625,9 @@
         <v>2.51</v>
       </c>
       <c r="J158" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2.51</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5650,7 +5662,7 @@
         <v>2.5</v>
       </c>
       <c r="J159" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5691,7 +5703,7 @@
         <v>2.48</v>
       </c>
       <c r="J160" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5726,11 +5738,13 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2.56</v>
+      </c>
       <c r="J161" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5765,11 +5779,13 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J162" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5804,11 +5820,13 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J163" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5843,11 +5861,13 @@
         <v>-6006703.442200001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J164" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5882,11 +5902,13 @@
         <v>-7180920.972200002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.56</v>
+      </c>
       <c r="J165" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5921,11 +5943,13 @@
         <v>-7324873.470200001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2.54</v>
+      </c>
       <c r="J166" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5966,7 +5990,7 @@
         <v>2.46</v>
       </c>
       <c r="J167" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6005,7 +6029,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6040,11 +6064,13 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.53</v>
+      </c>
       <c r="J169" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6083,7 +6109,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6118,11 +6144,13 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J171" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6157,11 +6185,13 @@
         <v>-6623023.718800001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J172" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6196,11 +6226,13 @@
         <v>-6787552.336200001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J173" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6235,11 +6267,13 @@
         <v>-6757983.336200001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2.56</v>
+      </c>
       <c r="J174" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6274,11 +6308,13 @@
         <v>-6118980.008100001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J175" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6317,7 +6353,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6352,11 +6388,13 @@
         <v>-5595065.517500001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2.62</v>
+      </c>
       <c r="J177" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6395,7 +6433,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6434,7 +6472,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6473,7 +6511,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6512,7 +6550,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6551,7 +6589,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6590,7 +6628,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6629,7 +6667,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6664,11 +6702,13 @@
         <v>-3436344.882000001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2.58</v>
+      </c>
       <c r="J185" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6703,11 +6743,13 @@
         <v>-3436344.882000001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2.58</v>
+      </c>
       <c r="J186" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6742,11 +6784,13 @@
         <v>-3436344.882000001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2.58</v>
+      </c>
       <c r="J187" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6781,11 +6825,13 @@
         <v>-3321841.065300001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2.58</v>
+      </c>
       <c r="J188" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6824,7 +6870,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6863,7 +6909,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6898,19 +6944,19 @@
         <v>-3342494.174300001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>1.01890438247012</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
@@ -6940,14 +6986,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +7019,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +7052,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +7085,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +7118,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7132,17 +7148,11 @@
         <v>-3367116.269600001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7171,17 +7181,11 @@
         <v>-3367116.269600001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7210,17 +7214,11 @@
         <v>-4914034.397400001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7249,17 +7247,11 @@
         <v>-4913034.397400001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +7283,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7330,14 +7316,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7349,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7382,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +7415,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7448,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7481,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7514,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7580,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7613,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7646,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +7679,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7798,14 +7712,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7745,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7778,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7915,14 +7811,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7954,14 +7844,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7910,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8071,14 +7943,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8110,14 +7976,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +8009,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +8042,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +8075,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +8108,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +8141,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +8174,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8380,17 +8204,11 @@
         <v>-4319100.785700002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8240,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +8273,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8497,17 +8303,11 @@
         <v>-4220193.435800002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8536,17 +8336,11 @@
         <v>-4223848.691100002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8372,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8405,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8653,17 +8435,11 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8692,17 +8468,11 @@
         <v>-4228682.901700002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8504,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8537,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8570,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8603,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8636,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8669,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8735,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8768,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8801,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9124,14 +8834,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9163,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9202,14 +8900,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9241,14 +8933,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9277,17 +8963,11 @@
         <v>-3511827.767700002</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9319,14 +8999,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9355,17 +9029,11 @@
         <v>-3190543.170600002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9394,17 +9062,11 @@
         <v>-3241749.170600002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-28 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>203521.6946</v>
       </c>
       <c r="G2" t="n">
-        <v>-3684896.695800001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>190114.0684</v>
       </c>
       <c r="G3" t="n">
-        <v>-3494782.627400001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>30985.9758</v>
       </c>
       <c r="G4" t="n">
-        <v>-3525768.603200001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>145785.1338</v>
       </c>
       <c r="G5" t="n">
-        <v>-3671553.737000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>83011.5776</v>
       </c>
       <c r="G6" t="n">
-        <v>-3588542.159400001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10000</v>
       </c>
       <c r="G7" t="n">
-        <v>-3588542.159400001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>11421</v>
       </c>
       <c r="G8" t="n">
-        <v>-3599963.159400001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>51586.5396</v>
       </c>
       <c r="G9" t="n">
-        <v>-3599963.159400001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>36717.619</v>
       </c>
       <c r="G10" t="n">
-        <v>-3599963.159400001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-3599863.159400001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>50890.9831</v>
       </c>
       <c r="G12" t="n">
-        <v>-3650754.142500001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>12826.3467</v>
       </c>
       <c r="G13" t="n">
-        <v>-3663580.489200001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>-3663480.489200001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>44900</v>
       </c>
       <c r="G15" t="n">
-        <v>-3663480.489200001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>95184.01730000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-3758664.506500001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>223828.0944</v>
       </c>
       <c r="G17" t="n">
-        <v>-3758664.506500001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-3758654.506500001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>784.2399</v>
       </c>
       <c r="G19" t="n">
-        <v>-3758654.506500001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1239.3293</v>
       </c>
       <c r="G20" t="n">
-        <v>-3759893.8358</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-3759883.8358</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>121387.8813</v>
       </c>
       <c r="G22" t="n">
-        <v>-3881271.7171</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>-3881171.7171</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>19618.5958</v>
       </c>
       <c r="G24" t="n">
-        <v>-3900790.3129</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>32887.7641</v>
       </c>
       <c r="G25" t="n">
-        <v>-3900790.3129</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>-3900690.3129</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4949.8023</v>
       </c>
       <c r="G27" t="n">
-        <v>-3905640.1152</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>140920.8259</v>
       </c>
       <c r="G28" t="n">
-        <v>-3764719.2893</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>75481.86569999999</v>
       </c>
       <c r="G29" t="n">
-        <v>-3689237.4236</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-3689247.4236</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>-3689147.4236</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>12</v>
       </c>
       <c r="G32" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>32697.1414</v>
       </c>
       <c r="G33" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-3689149.4236</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>39995</v>
       </c>
       <c r="G36" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>193147.1437</v>
       </c>
       <c r="G37" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>46557.6749</v>
       </c>
       <c r="G38" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>15797.7292</v>
       </c>
       <c r="G39" t="n">
-        <v>-3689159.4236</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7636.4665</v>
       </c>
       <c r="G40" t="n">
-        <v>-3681522.9571</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>155475.4212</v>
       </c>
       <c r="G41" t="n">
-        <v>-3681522.9571</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>28612.2755</v>
       </c>
       <c r="G42" t="n">
-        <v>-3710135.2326</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>7727</v>
       </c>
       <c r="G43" t="n">
-        <v>-3702408.2326</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>-3702208.2326</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>9288.4773</v>
       </c>
       <c r="G45" t="n">
-        <v>-3702208.2326</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>-3702708.2326</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>92785.59970000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-3702708.2326</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>70392.1152</v>
       </c>
       <c r="G48" t="n">
-        <v>-3632316.1174</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>-3633316.1174</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>-3632316.1174</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>130721.732</v>
       </c>
       <c r="G51" t="n">
-        <v>-3501594.3854</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>17802.9719</v>
       </c>
       <c r="G52" t="n">
-        <v>-3483791.413500001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1760</v>
       </c>
       <c r="G53" t="n">
-        <v>-3485551.413500001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>-3486551.413500001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-3486541.413500001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2837</v>
       </c>
       <c r="G56" t="n">
-        <v>-3489378.413500001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>27614.8267</v>
       </c>
       <c r="G57" t="n">
-        <v>-3489378.413500001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>29862</v>
       </c>
       <c r="G58" t="n">
-        <v>-3489378.413500001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>128888.9567</v>
       </c>
       <c r="G59" t="n">
-        <v>-3489378.413500001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>114503.8167</v>
       </c>
       <c r="G60" t="n">
-        <v>-3374874.596800001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>20097.4703</v>
       </c>
       <c r="G61" t="n">
-        <v>-3394972.067100001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>38167.9389</v>
       </c>
       <c r="G62" t="n">
-        <v>-3356804.128200001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>38022.8136</v>
       </c>
       <c r="G63" t="n">
-        <v>-3318781.314600001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1413973.7642</v>
       </c>
       <c r="G64" t="n">
-        <v>-3318781.314600001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>853882.7686</v>
       </c>
       <c r="G65" t="n">
-        <v>-4172664.083200001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>115384.6153</v>
       </c>
       <c r="G66" t="n">
-        <v>-4057279.467900001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>-4057079.467900001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>960763.1453</v>
       </c>
       <c r="G68" t="n">
-        <v>-4057079.467900001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>364550.8547</v>
       </c>
       <c r="G69" t="n">
-        <v>-4057079.467900001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>68702.28999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>-3988377.177900001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>38167.9389</v>
       </c>
       <c r="G71" t="n">
-        <v>-4026545.116800001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>76335.8778</v>
       </c>
       <c r="G72" t="n">
-        <v>-4026545.116800001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1579.3749</v>
       </c>
       <c r="G73" t="n">
-        <v>-4028124.491700001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>38022.8136</v>
       </c>
       <c r="G74" t="n">
-        <v>-3990101.678100001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>7206.9375</v>
       </c>
       <c r="G75" t="n">
-        <v>-3997308.615600001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-3997298.615600001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>-3998298.615600001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>233241</v>
       </c>
       <c r="G78" t="n">
-        <v>-3998298.615600001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10000</v>
       </c>
       <c r="G79" t="n">
-        <v>-3998298.615600001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>4000</v>
       </c>
       <c r="G80" t="n">
-        <v>-3998298.615600001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>38314.1762</v>
       </c>
       <c r="G81" t="n">
-        <v>-3959984.439400001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>105029</v>
       </c>
       <c r="G82" t="n">
-        <v>-4065013.439400001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>25251.8199</v>
       </c>
       <c r="G83" t="n">
-        <v>-4039761.619500001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>56816.6665</v>
       </c>
       <c r="G84" t="n">
-        <v>-4039761.619500001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4000</v>
       </c>
       <c r="G85" t="n">
-        <v>-4043761.619500001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>38314.1762</v>
       </c>
       <c r="G86" t="n">
-        <v>-4005447.443300001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>126580</v>
       </c>
       <c r="G87" t="n">
-        <v>-4132027.443300001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>10000</v>
       </c>
       <c r="G88" t="n">
-        <v>-4132027.443300001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>38314.1762</v>
       </c>
       <c r="G89" t="n">
-        <v>-4093713.267100001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>3886.59</v>
       </c>
       <c r="G90" t="n">
-        <v>-4093713.267100001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>84151.51360000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-4177864.780700001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>43317.3356</v>
       </c>
       <c r="G92" t="n">
-        <v>-4177864.780700001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>38314.1762</v>
       </c>
       <c r="G93" t="n">
-        <v>-4139550.604500001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>21883.9393</v>
       </c>
       <c r="G94" t="n">
-        <v>-4161434.543800001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>350071.7949</v>
       </c>
       <c r="G95" t="n">
-        <v>-4511506.338700001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>38314.1762</v>
       </c>
       <c r="G96" t="n">
-        <v>-4473192.162500001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>95785.4406</v>
       </c>
       <c r="G97" t="n">
-        <v>-4377406.721900001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>348391.0306</v>
       </c>
       <c r="G98" t="n">
-        <v>-4725797.752500001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>114288.7719</v>
       </c>
       <c r="G99" t="n">
-        <v>-4725797.752500001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>60658.9224</v>
       </c>
       <c r="G100" t="n">
-        <v>-4725797.752500001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>381377.4687</v>
       </c>
       <c r="G101" t="n">
-        <v>-4725797.752500001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>13254.8604</v>
       </c>
       <c r="G102" t="n">
-        <v>-4712542.892100002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>598570.7256</v>
       </c>
       <c r="G103" t="n">
-        <v>-5311113.617700001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>63906.6321</v>
       </c>
       <c r="G104" t="n">
-        <v>-5311113.617700001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>420094.5807</v>
       </c>
       <c r="G105" t="n">
-        <v>-5311113.617700001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>154894.1855</v>
       </c>
       <c r="G106" t="n">
-        <v>-5311113.617700001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1246574.9262</v>
       </c>
       <c r="G107" t="n">
-        <v>-5311113.617700001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>320704.6092</v>
       </c>
       <c r="G108" t="n">
-        <v>-5311113.617700001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>9532.8125</v>
       </c>
       <c r="G109" t="n">
-        <v>-5301580.805200001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>220000</v>
       </c>
       <c r="G110" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>74313.4451</v>
       </c>
       <c r="G111" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1247471.3902</v>
       </c>
       <c r="G112" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2040381</v>
       </c>
       <c r="G113" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>52024.1994</v>
       </c>
       <c r="G114" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1109543.0901</v>
       </c>
       <c r="G115" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>3582629.6047</v>
       </c>
       <c r="G116" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>124365.1276</v>
       </c>
       <c r="G117" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>500896.0118</v>
       </c>
       <c r="G118" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>89675.2721</v>
       </c>
       <c r="G119" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>335773.6361</v>
       </c>
       <c r="G120" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>31277.3988</v>
       </c>
       <c r="G121" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>174460.6011</v>
       </c>
       <c r="G122" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>388687</v>
       </c>
       <c r="G123" t="n">
-        <v>-5521580.805200001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>513319</v>
       </c>
       <c r="G124" t="n">
-        <v>-5008261.805200001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>281743</v>
       </c>
       <c r="G125" t="n">
-        <v>-5290004.805200001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>337005.1807</v>
       </c>
       <c r="G126" t="n">
-        <v>-5290004.805200001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>53725.0034</v>
       </c>
       <c r="G127" t="n">
-        <v>-5290004.805200001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>386100.5</v>
       </c>
       <c r="G128" t="n">
-        <v>-4903904.305200001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>-4904904.305200001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>365.4647</v>
       </c>
       <c r="G130" t="n">
-        <v>-4904904.305200001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>388558</v>
       </c>
       <c r="G131" t="n">
-        <v>-5293462.305200001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1768.795</v>
       </c>
       <c r="G132" t="n">
-        <v>-5293462.305200001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>171559.4594</v>
       </c>
       <c r="G133" t="n">
-        <v>-5121902.845800001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>40338.8226</v>
       </c>
       <c r="G134" t="n">
-        <v>-5162241.668400001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>49841.4944</v>
       </c>
       <c r="G135" t="n">
-        <v>-5162241.668400001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>270610.2779</v>
       </c>
       <c r="G136" t="n">
-        <v>-5162241.668400001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>19999.7221</v>
       </c>
       <c r="G137" t="n">
-        <v>-5162241.668400001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>23166.0231</v>
       </c>
       <c r="G138" t="n">
-        <v>-5139075.645300001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>38461.5384</v>
       </c>
       <c r="G139" t="n">
-        <v>-5139075.645300001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>106360.555</v>
       </c>
       <c r="G140" t="n">
-        <v>-5245436.200300001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>215563</v>
       </c>
       <c r="G141" t="n">
-        <v>-5245436.200300001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>78373</v>
       </c>
       <c r="G142" t="n">
-        <v>-5245436.200300001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>53922.2343</v>
       </c>
       <c r="G143" t="n">
-        <v>-5245436.200300001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>84766.89720000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-5245436.200300001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>20000</v>
       </c>
       <c r="G145" t="n">
-        <v>-5245436.200300001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>13243.0711</v>
       </c>
       <c r="G146" t="n">
-        <v>-5258679.271400001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>10131.457</v>
       </c>
       <c r="G147" t="n">
-        <v>-5258679.271400001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>209684.5029</v>
       </c>
       <c r="G148" t="n">
-        <v>-5258679.271400001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>215450.6152</v>
       </c>
       <c r="G149" t="n">
-        <v>-5474129.886600001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>20000</v>
       </c>
       <c r="G150" t="n">
-        <v>-5474129.886600001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>3073.3571</v>
       </c>
       <c r="G151" t="n">
-        <v>-5474129.886600001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>186840.6058</v>
       </c>
       <c r="G152" t="n">
-        <v>-5660970.492400001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,19 @@
         <v>18827.5703</v>
       </c>
       <c r="G153" t="n">
-        <v>-5660970.492400001</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.52</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5007,21 @@
         <v>550191.0251</v>
       </c>
       <c r="G154" t="n">
-        <v>-5660970.492400001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,22 +5043,23 @@
         <v>34266.8198</v>
       </c>
       <c r="G155" t="n">
-        <v>-5660970.492400001</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2.52</v>
       </c>
       <c r="I155" t="n">
         <v>2.52</v>
       </c>
-      <c r="J155" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5534,26 +5081,23 @@
         <v>2540.3968</v>
       </c>
       <c r="G156" t="n">
-        <v>-5660970.492400001</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2.52</v>
       </c>
       <c r="I156" t="n">
         <v>2.52</v>
       </c>
-      <c r="J156" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5575,26 +5119,23 @@
         <v>7723.5457</v>
       </c>
       <c r="G157" t="n">
-        <v>-5668694.0381</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2.52</v>
       </c>
       <c r="I157" t="n">
         <v>2.52</v>
       </c>
-      <c r="J157" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5616,22 +5157,23 @@
         <v>31850</v>
       </c>
       <c r="G158" t="n">
-        <v>-5700544.0381</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2.51</v>
       </c>
       <c r="I158" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="J158" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5653,26 +5195,23 @@
         <v>326893.1664</v>
       </c>
       <c r="G159" t="n">
-        <v>-6027437.204500001</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="I159" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5694,26 +5233,23 @@
         <v>390.625</v>
       </c>
       <c r="G160" t="n">
-        <v>-6027046.579500001</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="I160" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J160" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K160" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5735,26 +5271,23 @@
         <v>656.8627</v>
       </c>
       <c r="G161" t="n">
-        <v>-6027703.442200001</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="I161" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J161" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K161" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5776,26 +5309,23 @@
         <v>163792.5321</v>
       </c>
       <c r="G162" t="n">
-        <v>-6027703.442200001</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="I162" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K162" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5817,26 +5347,23 @@
         <v>318947.6639</v>
       </c>
       <c r="G163" t="n">
-        <v>-6027703.442200001</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="I163" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5858,26 +5385,21 @@
         <v>21000</v>
       </c>
       <c r="G164" t="n">
-        <v>-6006703.442200001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J164" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5899,26 +5421,23 @@
         <v>1174217.53</v>
       </c>
       <c r="G165" t="n">
-        <v>-7180920.972200002</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="I165" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5940,26 +5459,23 @@
         <v>143952.498</v>
       </c>
       <c r="G166" t="n">
-        <v>-7324873.470200001</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="I166" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5981,26 +5497,23 @@
         <v>40000</v>
       </c>
       <c r="G167" t="n">
-        <v>-7284873.470200001</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2.46</v>
       </c>
       <c r="I167" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J167" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K167" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6022,24 +5535,21 @@
         <v>10000</v>
       </c>
       <c r="G168" t="n">
-        <v>-7284873.470200001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K168" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6061,26 +5571,21 @@
         <v>119124.216</v>
       </c>
       <c r="G169" t="n">
-        <v>-7284873.470200001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6102,24 +5607,21 @@
         <v>18618.9664</v>
       </c>
       <c r="G170" t="n">
-        <v>-7266254.503800001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6141,26 +5643,21 @@
         <v>603192.745</v>
       </c>
       <c r="G171" t="n">
-        <v>-7266254.503800001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6182,26 +5679,21 @@
         <v>643230.785</v>
       </c>
       <c r="G172" t="n">
-        <v>-6623023.718800001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J172" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6223,26 +5715,21 @@
         <v>164528.6174</v>
       </c>
       <c r="G173" t="n">
-        <v>-6787552.336200001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J173" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6264,26 +5751,21 @@
         <v>29569</v>
       </c>
       <c r="G174" t="n">
-        <v>-6757983.336200001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6305,26 +5787,21 @@
         <v>639003.3281</v>
       </c>
       <c r="G175" t="n">
-        <v>-6118980.008100001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6346,24 +5823,21 @@
         <v>523914.4906</v>
       </c>
       <c r="G176" t="n">
-        <v>-5595065.517500001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6385,26 +5859,21 @@
         <v>20000</v>
       </c>
       <c r="G177" t="n">
-        <v>-5595065.517500001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J177" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6426,24 +5895,21 @@
         <v>10000</v>
       </c>
       <c r="G178" t="n">
-        <v>-5605065.517500001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K178" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6465,24 +5931,21 @@
         <v>26145</v>
       </c>
       <c r="G179" t="n">
-        <v>-5578920.517500001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6504,24 +5967,21 @@
         <v>120338.1925</v>
       </c>
       <c r="G180" t="n">
-        <v>-5458582.325000001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6543,24 +6003,21 @@
         <v>119999.1064</v>
       </c>
       <c r="G181" t="n">
-        <v>-5338583.218600001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6582,24 +6039,21 @@
         <v>110886.3087</v>
       </c>
       <c r="G182" t="n">
-        <v>-5449469.527300001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6621,24 +6075,21 @@
         <v>2113622.1453</v>
       </c>
       <c r="G183" t="n">
-        <v>-3335847.382000001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6660,24 +6111,21 @@
         <v>100497.5</v>
       </c>
       <c r="G184" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6699,26 +6147,21 @@
         <v>69582</v>
       </c>
       <c r="G185" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J185" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6740,26 +6183,21 @@
         <v>671588.8382</v>
       </c>
       <c r="G186" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J186" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6781,26 +6219,21 @@
         <v>59991.2849</v>
       </c>
       <c r="G187" t="n">
-        <v>-3436344.882000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J187" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6822,26 +6255,21 @@
         <v>114503.8167</v>
       </c>
       <c r="G188" t="n">
-        <v>-3321841.065300001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J188" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>2.52</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6863,24 +6291,21 @@
         <v>37878.7878</v>
       </c>
       <c r="G189" t="n">
-        <v>-3283962.277500001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6902,24 +6327,21 @@
         <v>56390.9774</v>
       </c>
       <c r="G190" t="n">
-        <v>-3227571.300100001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6941,24 +6363,21 @@
         <v>114922.8742</v>
       </c>
       <c r="G191" t="n">
-        <v>-3342494.174300001</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="K191" t="inlineStr">
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1.01890438247012</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1.01484126984127</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6980,18 +6399,15 @@
         <v>19157.0881</v>
       </c>
       <c r="G192" t="n">
-        <v>-3323337.086200001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7013,18 +6429,15 @@
         <v>162631.2594</v>
       </c>
       <c r="G193" t="n">
-        <v>-3485968.345600001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7046,18 +6459,15 @@
         <v>80769.2307</v>
       </c>
       <c r="G194" t="n">
-        <v>-3405199.114900001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7079,18 +6489,15 @@
         <v>22988.5057</v>
       </c>
       <c r="G195" t="n">
-        <v>-3382210.609200001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7112,18 +6519,15 @@
         <v>15094.3396</v>
       </c>
       <c r="G196" t="n">
-        <v>-3367116.269600001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7145,18 +6549,15 @@
         <v>3787.8787</v>
       </c>
       <c r="G197" t="n">
-        <v>-3367116.269600001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7178,18 +6579,15 @@
         <v>3398521.2855</v>
       </c>
       <c r="G198" t="n">
-        <v>-3367116.269600001</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7211,18 +6609,15 @@
         <v>1546918.1278</v>
       </c>
       <c r="G199" t="n">
-        <v>-4914034.397400001</v>
-      </c>
-      <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7244,18 +6639,15 @@
         <v>1000</v>
       </c>
       <c r="G200" t="n">
-        <v>-4913034.397400001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7277,18 +6669,15 @@
         <v>37593.9849</v>
       </c>
       <c r="G201" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7310,18 +6699,15 @@
         <v>18726.5917</v>
       </c>
       <c r="G202" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7343,18 +6729,15 @@
         <v>18796.9924</v>
       </c>
       <c r="G203" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7376,18 +6759,15 @@
         <v>3773.5849</v>
       </c>
       <c r="G204" t="n">
-        <v>-4875440.412500001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7409,18 +6789,15 @@
         <v>57037.9849</v>
       </c>
       <c r="G205" t="n">
-        <v>-4932478.397400001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7442,18 +6819,15 @@
         <v>38453.1835</v>
       </c>
       <c r="G206" t="n">
-        <v>-4894025.213900001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7475,18 +6849,15 @@
         <v>114029.0368</v>
       </c>
       <c r="G207" t="n">
-        <v>-5008054.250700001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7508,18 +6879,15 @@
         <v>8841</v>
       </c>
       <c r="G208" t="n">
-        <v>-4999213.250700001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7541,18 +6909,15 @@
         <v>37878.7878</v>
       </c>
       <c r="G209" t="n">
-        <v>-4961334.462900001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7574,18 +6939,15 @@
         <v>90861.1683</v>
       </c>
       <c r="G210" t="n">
-        <v>-5052195.631200001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7607,18 +6969,15 @@
         <v>84986.0802</v>
       </c>
       <c r="G211" t="n">
-        <v>-4967209.551000001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7640,18 +6999,15 @@
         <v>19157.0881</v>
       </c>
       <c r="G212" t="n">
-        <v>-4948052.462900001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7673,18 +7029,15 @@
         <v>4631.2643</v>
       </c>
       <c r="G213" t="n">
-        <v>-4948052.462900001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7706,18 +7059,15 @@
         <v>39466.3212</v>
       </c>
       <c r="G214" t="n">
-        <v>-4987518.784100001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7739,18 +7089,15 @@
         <v>5720.2168</v>
       </c>
       <c r="G215" t="n">
-        <v>-4987518.784100001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7772,18 +7119,15 @@
         <v>19305.0193</v>
       </c>
       <c r="G216" t="n">
-        <v>-4968213.764800001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7805,18 +7149,15 @@
         <v>533106.5606</v>
       </c>
       <c r="G217" t="n">
-        <v>-4435107.204200001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7838,18 +7179,15 @@
         <v>243913.2932</v>
       </c>
       <c r="G218" t="n">
-        <v>-4191193.911000001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7871,18 +7209,15 @@
         <v>13000</v>
       </c>
       <c r="G219" t="n">
-        <v>-4191193.911000001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7904,18 +7239,15 @@
         <v>12275</v>
       </c>
       <c r="G220" t="n">
-        <v>-4178918.911000001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7937,18 +7269,15 @@
         <v>22064</v>
       </c>
       <c r="G221" t="n">
-        <v>-4200982.911000001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7970,18 +7299,15 @@
         <v>39050</v>
       </c>
       <c r="G222" t="n">
-        <v>-4161932.911000001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8003,18 +7329,15 @@
         <v>105520.8103</v>
       </c>
       <c r="G223" t="n">
-        <v>-4161932.911000001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8036,18 +7359,15 @@
         <v>1170.1901</v>
       </c>
       <c r="G224" t="n">
-        <v>-4160762.720900001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8069,18 +7389,15 @@
         <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>-4160752.720900001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8102,18 +7419,15 @@
         <v>105051.1915</v>
       </c>
       <c r="G226" t="n">
-        <v>-4265803.912400002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8135,18 +7449,15 @@
         <v>18867.9245</v>
       </c>
       <c r="G227" t="n">
-        <v>-4246935.987900002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8168,18 +7479,15 @@
         <v>56440.7547</v>
       </c>
       <c r="G228" t="n">
-        <v>-4246935.987900002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8201,18 +7509,15 @@
         <v>72164.7978</v>
       </c>
       <c r="G229" t="n">
-        <v>-4319100.785700002</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8234,18 +7539,15 @@
         <v>46415.0943</v>
       </c>
       <c r="G230" t="n">
-        <v>-4272685.691400002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8267,18 +7569,15 @@
         <v>52492.2556</v>
       </c>
       <c r="G231" t="n">
-        <v>-4220193.435800002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8300,18 +7599,15 @@
         <v>519498.8317</v>
       </c>
       <c r="G232" t="n">
-        <v>-4220193.435800002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8333,18 +7629,15 @@
         <v>3655.2553</v>
       </c>
       <c r="G233" t="n">
-        <v>-4223848.691100002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8366,18 +7659,15 @@
         <v>46315.7894</v>
       </c>
       <c r="G234" t="n">
-        <v>-4177532.901700002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8399,18 +7689,15 @@
         <v>10</v>
       </c>
       <c r="G235" t="n">
-        <v>-4177522.901700002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8432,18 +7719,15 @@
         <v>10</v>
       </c>
       <c r="G236" t="n">
-        <v>-4177522.901700002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8465,18 +7749,15 @@
         <v>51160</v>
       </c>
       <c r="G237" t="n">
-        <v>-4228682.901700002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8498,18 +7779,15 @@
         <v>246517.3396</v>
       </c>
       <c r="G238" t="n">
-        <v>-4475200.241300002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8531,18 +7809,15 @@
         <v>42381</v>
       </c>
       <c r="G239" t="n">
-        <v>-4475200.241300002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8564,18 +7839,15 @@
         <v>5064</v>
       </c>
       <c r="G240" t="n">
-        <v>-4470136.241300002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8597,18 +7869,15 @@
         <v>783618.2692</v>
       </c>
       <c r="G241" t="n">
-        <v>-4470136.241300002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8630,18 +7899,15 @@
         <v>5624</v>
       </c>
       <c r="G242" t="n">
-        <v>-4475760.241300002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8663,18 +7929,15 @@
         <v>14376</v>
       </c>
       <c r="G243" t="n">
-        <v>-4490136.241300002</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8696,18 +7959,15 @@
         <v>41568.4087</v>
       </c>
       <c r="G244" t="n">
-        <v>-4490136.241300002</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8729,18 +7989,15 @@
         <v>456926.0466</v>
       </c>
       <c r="G245" t="n">
-        <v>-4490136.241300002</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8762,18 +8019,15 @@
         <v>11363.6363</v>
       </c>
       <c r="G246" t="n">
-        <v>-4478772.605000001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8795,18 +8049,15 @@
         <v>21.9725</v>
       </c>
       <c r="G247" t="n">
-        <v>-4478794.577500002</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8828,18 +8079,15 @@
         <v>65208.9389</v>
       </c>
       <c r="G248" t="n">
-        <v>-4413585.638600001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8861,18 +8109,15 @@
         <v>151.8715</v>
       </c>
       <c r="G249" t="n">
-        <v>-4413737.510100001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8894,18 +8139,15 @@
         <v>35115</v>
       </c>
       <c r="G250" t="n">
-        <v>-4378622.510100001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8927,18 +8169,15 @@
         <v>8770</v>
       </c>
       <c r="G251" t="n">
-        <v>-4387392.510100001</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8960,18 +8199,15 @@
         <v>875564.7424</v>
       </c>
       <c r="G252" t="n">
-        <v>-3511827.767700002</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8993,18 +8229,15 @@
         <v>321284.5971</v>
       </c>
       <c r="G253" t="n">
-        <v>-3190543.170600002</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9026,18 +8259,15 @@
         <v>1349.3181</v>
       </c>
       <c r="G254" t="n">
-        <v>-3190543.170600002</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9059,18 +8289,15 @@
         <v>51206</v>
       </c>
       <c r="G255" t="n">
-        <v>-3241749.170600002</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
